--- a/public/formatos_academicos/F-DA-GA-03 Seguimiento de la Planeación Didáctica.xlsx
+++ b/public/formatos_academicos/F-DA-GA-03 Seguimiento de la Planeación Didáctica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afcf8fbd98bc180c/Desktop/Gestión Académica 2025/Formatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TI-UTM\public\formatos_academicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{612EABEA-981B-4E79-BB39-A7EF33B9D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA06ED83-736A-4F23-B03D-214608482ED2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CE066-A2C0-4808-8386-6B5C090CDC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anverso Seguimiento por Unidad" sheetId="116" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Programa Educativo</t>
   </si>
@@ -275,6 +275,9 @@
     <t>Seguimiento de la Planeación Didáctica 
 por Unidad de Aprendizaje</t>
   </si>
+  <si>
+    <t>Nombre y Firma del Profesor</t>
+  </si>
 </sst>
 </file>
 
@@ -965,12 +968,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,15 +1079,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1031,71 +1100,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1105,21 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1171,9 +1174,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>297180</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>666750</xdr:rowOff>
+          <xdr:rowOff>670560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1224,15 +1227,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>2159000</xdr:colOff>
+          <xdr:colOff>2156460</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>628650</xdr:rowOff>
+          <xdr:rowOff>632460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1274,10 +1277,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,1138 +1548,1138 @@
   </sheetPr>
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:M13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="1" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="0.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="5.6328125" style="1" customWidth="1"/>
-    <col min="18" max="32" width="4.6328125" style="1" customWidth="1"/>
-    <col min="33" max="261" width="10.90625" style="1"/>
-    <col min="262" max="262" width="5.1796875" style="1" customWidth="1"/>
-    <col min="263" max="263" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="0.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.21875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="32" width="4.6640625" style="1" customWidth="1"/>
+    <col min="33" max="261" width="10.88671875" style="1"/>
+    <col min="262" max="262" width="5.21875" style="1" customWidth="1"/>
+    <col min="263" max="263" width="4.5546875" style="1" customWidth="1"/>
     <col min="264" max="264" width="1" style="1" customWidth="1"/>
-    <col min="265" max="265" width="4.26953125" style="1" customWidth="1"/>
-    <col min="266" max="266" width="8.453125" style="1" customWidth="1"/>
+    <col min="265" max="265" width="4.21875" style="1" customWidth="1"/>
+    <col min="266" max="266" width="8.44140625" style="1" customWidth="1"/>
     <col min="267" max="267" width="1" style="1" customWidth="1"/>
-    <col min="268" max="268" width="4.26953125" style="1" customWidth="1"/>
-    <col min="269" max="269" width="7.453125" style="1" customWidth="1"/>
+    <col min="268" max="268" width="4.21875" style="1" customWidth="1"/>
+    <col min="269" max="269" width="7.44140625" style="1" customWidth="1"/>
     <col min="270" max="270" width="1" style="1" customWidth="1"/>
-    <col min="271" max="272" width="4.26953125" style="1" customWidth="1"/>
-    <col min="273" max="273" width="7.7265625" style="1" customWidth="1"/>
-    <col min="274" max="274" width="10.453125" style="1" customWidth="1"/>
-    <col min="275" max="275" width="12.7265625" style="1" customWidth="1"/>
-    <col min="276" max="276" width="22.26953125" style="1" customWidth="1"/>
-    <col min="277" max="277" width="0.7265625" style="1" customWidth="1"/>
-    <col min="278" max="278" width="4.1796875" style="1" customWidth="1"/>
-    <col min="279" max="517" width="10.90625" style="1"/>
-    <col min="518" max="518" width="5.1796875" style="1" customWidth="1"/>
-    <col min="519" max="519" width="4.54296875" style="1" customWidth="1"/>
+    <col min="271" max="272" width="4.21875" style="1" customWidth="1"/>
+    <col min="273" max="273" width="7.77734375" style="1" customWidth="1"/>
+    <col min="274" max="274" width="10.44140625" style="1" customWidth="1"/>
+    <col min="275" max="275" width="12.77734375" style="1" customWidth="1"/>
+    <col min="276" max="276" width="22.21875" style="1" customWidth="1"/>
+    <col min="277" max="277" width="0.77734375" style="1" customWidth="1"/>
+    <col min="278" max="278" width="4.21875" style="1" customWidth="1"/>
+    <col min="279" max="517" width="10.88671875" style="1"/>
+    <col min="518" max="518" width="5.21875" style="1" customWidth="1"/>
+    <col min="519" max="519" width="4.5546875" style="1" customWidth="1"/>
     <col min="520" max="520" width="1" style="1" customWidth="1"/>
-    <col min="521" max="521" width="4.26953125" style="1" customWidth="1"/>
-    <col min="522" max="522" width="8.453125" style="1" customWidth="1"/>
+    <col min="521" max="521" width="4.21875" style="1" customWidth="1"/>
+    <col min="522" max="522" width="8.44140625" style="1" customWidth="1"/>
     <col min="523" max="523" width="1" style="1" customWidth="1"/>
-    <col min="524" max="524" width="4.26953125" style="1" customWidth="1"/>
-    <col min="525" max="525" width="7.453125" style="1" customWidth="1"/>
+    <col min="524" max="524" width="4.21875" style="1" customWidth="1"/>
+    <col min="525" max="525" width="7.44140625" style="1" customWidth="1"/>
     <col min="526" max="526" width="1" style="1" customWidth="1"/>
-    <col min="527" max="528" width="4.26953125" style="1" customWidth="1"/>
-    <col min="529" max="529" width="7.7265625" style="1" customWidth="1"/>
-    <col min="530" max="530" width="10.453125" style="1" customWidth="1"/>
-    <col min="531" max="531" width="12.7265625" style="1" customWidth="1"/>
-    <col min="532" max="532" width="22.26953125" style="1" customWidth="1"/>
-    <col min="533" max="533" width="0.7265625" style="1" customWidth="1"/>
-    <col min="534" max="534" width="4.1796875" style="1" customWidth="1"/>
-    <col min="535" max="773" width="10.90625" style="1"/>
-    <col min="774" max="774" width="5.1796875" style="1" customWidth="1"/>
-    <col min="775" max="775" width="4.54296875" style="1" customWidth="1"/>
+    <col min="527" max="528" width="4.21875" style="1" customWidth="1"/>
+    <col min="529" max="529" width="7.77734375" style="1" customWidth="1"/>
+    <col min="530" max="530" width="10.44140625" style="1" customWidth="1"/>
+    <col min="531" max="531" width="12.77734375" style="1" customWidth="1"/>
+    <col min="532" max="532" width="22.21875" style="1" customWidth="1"/>
+    <col min="533" max="533" width="0.77734375" style="1" customWidth="1"/>
+    <col min="534" max="534" width="4.21875" style="1" customWidth="1"/>
+    <col min="535" max="773" width="10.88671875" style="1"/>
+    <col min="774" max="774" width="5.21875" style="1" customWidth="1"/>
+    <col min="775" max="775" width="4.5546875" style="1" customWidth="1"/>
     <col min="776" max="776" width="1" style="1" customWidth="1"/>
-    <col min="777" max="777" width="4.26953125" style="1" customWidth="1"/>
-    <col min="778" max="778" width="8.453125" style="1" customWidth="1"/>
+    <col min="777" max="777" width="4.21875" style="1" customWidth="1"/>
+    <col min="778" max="778" width="8.44140625" style="1" customWidth="1"/>
     <col min="779" max="779" width="1" style="1" customWidth="1"/>
-    <col min="780" max="780" width="4.26953125" style="1" customWidth="1"/>
-    <col min="781" max="781" width="7.453125" style="1" customWidth="1"/>
+    <col min="780" max="780" width="4.21875" style="1" customWidth="1"/>
+    <col min="781" max="781" width="7.44140625" style="1" customWidth="1"/>
     <col min="782" max="782" width="1" style="1" customWidth="1"/>
-    <col min="783" max="784" width="4.26953125" style="1" customWidth="1"/>
-    <col min="785" max="785" width="7.7265625" style="1" customWidth="1"/>
-    <col min="786" max="786" width="10.453125" style="1" customWidth="1"/>
-    <col min="787" max="787" width="12.7265625" style="1" customWidth="1"/>
-    <col min="788" max="788" width="22.26953125" style="1" customWidth="1"/>
-    <col min="789" max="789" width="0.7265625" style="1" customWidth="1"/>
-    <col min="790" max="790" width="4.1796875" style="1" customWidth="1"/>
-    <col min="791" max="1029" width="10.90625" style="1"/>
-    <col min="1030" max="1030" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.54296875" style="1" customWidth="1"/>
+    <col min="783" max="784" width="4.21875" style="1" customWidth="1"/>
+    <col min="785" max="785" width="7.77734375" style="1" customWidth="1"/>
+    <col min="786" max="786" width="10.44140625" style="1" customWidth="1"/>
+    <col min="787" max="787" width="12.77734375" style="1" customWidth="1"/>
+    <col min="788" max="788" width="22.21875" style="1" customWidth="1"/>
+    <col min="789" max="789" width="0.77734375" style="1" customWidth="1"/>
+    <col min="790" max="790" width="4.21875" style="1" customWidth="1"/>
+    <col min="791" max="1029" width="10.88671875" style="1"/>
+    <col min="1030" max="1030" width="5.21875" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.5546875" style="1" customWidth="1"/>
     <col min="1032" max="1032" width="1" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="8.453125" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="4.21875" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="8.44140625" style="1" customWidth="1"/>
     <col min="1035" max="1035" width="1" style="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="7.453125" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.21875" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="7.44140625" style="1" customWidth="1"/>
     <col min="1038" max="1038" width="1" style="1" customWidth="1"/>
-    <col min="1039" max="1040" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1041" max="1041" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10.453125" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1044" max="1044" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1045" max="1045" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1046" max="1046" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1047" max="1285" width="10.90625" style="1"/>
-    <col min="1286" max="1286" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1039" max="1040" width="4.21875" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1044" max="1044" width="22.21875" style="1" customWidth="1"/>
+    <col min="1045" max="1045" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1046" max="1046" width="4.21875" style="1" customWidth="1"/>
+    <col min="1047" max="1285" width="10.88671875" style="1"/>
+    <col min="1286" max="1286" width="5.21875" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.5546875" style="1" customWidth="1"/>
     <col min="1288" max="1288" width="1" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="8.453125" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="4.21875" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="8.44140625" style="1" customWidth="1"/>
     <col min="1291" max="1291" width="1" style="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="7.453125" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.21875" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="7.44140625" style="1" customWidth="1"/>
     <col min="1294" max="1294" width="1" style="1" customWidth="1"/>
-    <col min="1295" max="1296" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1297" max="1297" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10.453125" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1300" max="1300" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1301" max="1301" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1302" max="1302" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1303" max="1541" width="10.90625" style="1"/>
-    <col min="1542" max="1542" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1295" max="1296" width="4.21875" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1300" max="1300" width="22.21875" style="1" customWidth="1"/>
+    <col min="1301" max="1301" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1302" max="1302" width="4.21875" style="1" customWidth="1"/>
+    <col min="1303" max="1541" width="10.88671875" style="1"/>
+    <col min="1542" max="1542" width="5.21875" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.5546875" style="1" customWidth="1"/>
     <col min="1544" max="1544" width="1" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="8.453125" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="4.21875" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="8.44140625" style="1" customWidth="1"/>
     <col min="1547" max="1547" width="1" style="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="7.453125" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.21875" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="7.44140625" style="1" customWidth="1"/>
     <col min="1550" max="1550" width="1" style="1" customWidth="1"/>
-    <col min="1551" max="1552" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1553" max="1553" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10.453125" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1556" max="1556" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1557" max="1557" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1558" max="1558" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1559" max="1797" width="10.90625" style="1"/>
-    <col min="1798" max="1798" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1551" max="1552" width="4.21875" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1556" max="1556" width="22.21875" style="1" customWidth="1"/>
+    <col min="1557" max="1557" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1558" max="1558" width="4.21875" style="1" customWidth="1"/>
+    <col min="1559" max="1797" width="10.88671875" style="1"/>
+    <col min="1798" max="1798" width="5.21875" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.5546875" style="1" customWidth="1"/>
     <col min="1800" max="1800" width="1" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="8.453125" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="4.21875" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="8.44140625" style="1" customWidth="1"/>
     <col min="1803" max="1803" width="1" style="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="7.453125" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.21875" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="7.44140625" style="1" customWidth="1"/>
     <col min="1806" max="1806" width="1" style="1" customWidth="1"/>
-    <col min="1807" max="1808" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1809" max="1809" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10.453125" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1812" max="1812" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1813" max="1813" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1814" max="1814" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1815" max="2053" width="10.90625" style="1"/>
-    <col min="2054" max="2054" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1807" max="1808" width="4.21875" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1812" max="1812" width="22.21875" style="1" customWidth="1"/>
+    <col min="1813" max="1813" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1814" max="1814" width="4.21875" style="1" customWidth="1"/>
+    <col min="1815" max="2053" width="10.88671875" style="1"/>
+    <col min="2054" max="2054" width="5.21875" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.5546875" style="1" customWidth="1"/>
     <col min="2056" max="2056" width="1" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="8.453125" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="4.21875" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="8.44140625" style="1" customWidth="1"/>
     <col min="2059" max="2059" width="1" style="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="7.453125" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.21875" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="7.44140625" style="1" customWidth="1"/>
     <col min="2062" max="2062" width="1" style="1" customWidth="1"/>
-    <col min="2063" max="2064" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2065" max="2065" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10.453125" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2068" max="2068" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2069" max="2069" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2070" max="2070" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2071" max="2309" width="10.90625" style="1"/>
-    <col min="2310" max="2310" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2063" max="2064" width="4.21875" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2068" max="2068" width="22.21875" style="1" customWidth="1"/>
+    <col min="2069" max="2069" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2070" max="2070" width="4.21875" style="1" customWidth="1"/>
+    <col min="2071" max="2309" width="10.88671875" style="1"/>
+    <col min="2310" max="2310" width="5.21875" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.5546875" style="1" customWidth="1"/>
     <col min="2312" max="2312" width="1" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="8.453125" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="4.21875" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="8.44140625" style="1" customWidth="1"/>
     <col min="2315" max="2315" width="1" style="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="7.453125" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.21875" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="7.44140625" style="1" customWidth="1"/>
     <col min="2318" max="2318" width="1" style="1" customWidth="1"/>
-    <col min="2319" max="2320" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2321" max="2321" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10.453125" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2324" max="2324" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2325" max="2325" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2326" max="2326" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2327" max="2565" width="10.90625" style="1"/>
-    <col min="2566" max="2566" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2319" max="2320" width="4.21875" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2324" max="2324" width="22.21875" style="1" customWidth="1"/>
+    <col min="2325" max="2325" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2326" max="2326" width="4.21875" style="1" customWidth="1"/>
+    <col min="2327" max="2565" width="10.88671875" style="1"/>
+    <col min="2566" max="2566" width="5.21875" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.5546875" style="1" customWidth="1"/>
     <col min="2568" max="2568" width="1" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="8.453125" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="4.21875" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="8.44140625" style="1" customWidth="1"/>
     <col min="2571" max="2571" width="1" style="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="7.453125" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.21875" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="7.44140625" style="1" customWidth="1"/>
     <col min="2574" max="2574" width="1" style="1" customWidth="1"/>
-    <col min="2575" max="2576" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2577" max="2577" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10.453125" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2580" max="2580" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2581" max="2581" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2582" max="2582" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2583" max="2821" width="10.90625" style="1"/>
-    <col min="2822" max="2822" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2575" max="2576" width="4.21875" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2580" max="2580" width="22.21875" style="1" customWidth="1"/>
+    <col min="2581" max="2581" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2582" max="2582" width="4.21875" style="1" customWidth="1"/>
+    <col min="2583" max="2821" width="10.88671875" style="1"/>
+    <col min="2822" max="2822" width="5.21875" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.5546875" style="1" customWidth="1"/>
     <col min="2824" max="2824" width="1" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="8.453125" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="4.21875" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="8.44140625" style="1" customWidth="1"/>
     <col min="2827" max="2827" width="1" style="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="7.453125" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.21875" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="7.44140625" style="1" customWidth="1"/>
     <col min="2830" max="2830" width="1" style="1" customWidth="1"/>
-    <col min="2831" max="2832" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2833" max="2833" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10.453125" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2836" max="2836" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2837" max="2837" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2838" max="2838" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2839" max="3077" width="10.90625" style="1"/>
-    <col min="3078" max="3078" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2831" max="2832" width="4.21875" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2836" max="2836" width="22.21875" style="1" customWidth="1"/>
+    <col min="2837" max="2837" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2838" max="2838" width="4.21875" style="1" customWidth="1"/>
+    <col min="2839" max="3077" width="10.88671875" style="1"/>
+    <col min="3078" max="3078" width="5.21875" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.5546875" style="1" customWidth="1"/>
     <col min="3080" max="3080" width="1" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="8.453125" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="4.21875" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="8.44140625" style="1" customWidth="1"/>
     <col min="3083" max="3083" width="1" style="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="7.453125" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.21875" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="7.44140625" style="1" customWidth="1"/>
     <col min="3086" max="3086" width="1" style="1" customWidth="1"/>
-    <col min="3087" max="3088" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3089" max="3089" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10.453125" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3092" max="3092" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3093" max="3093" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3094" max="3094" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3095" max="3333" width="10.90625" style="1"/>
-    <col min="3334" max="3334" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3087" max="3088" width="4.21875" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3092" max="3092" width="22.21875" style="1" customWidth="1"/>
+    <col min="3093" max="3093" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3094" max="3094" width="4.21875" style="1" customWidth="1"/>
+    <col min="3095" max="3333" width="10.88671875" style="1"/>
+    <col min="3334" max="3334" width="5.21875" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.5546875" style="1" customWidth="1"/>
     <col min="3336" max="3336" width="1" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="8.453125" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="4.21875" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="8.44140625" style="1" customWidth="1"/>
     <col min="3339" max="3339" width="1" style="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="7.453125" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.21875" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="7.44140625" style="1" customWidth="1"/>
     <col min="3342" max="3342" width="1" style="1" customWidth="1"/>
-    <col min="3343" max="3344" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3345" max="3345" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10.453125" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3348" max="3348" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3349" max="3349" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3350" max="3350" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3351" max="3589" width="10.90625" style="1"/>
-    <col min="3590" max="3590" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3343" max="3344" width="4.21875" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3348" max="3348" width="22.21875" style="1" customWidth="1"/>
+    <col min="3349" max="3349" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3350" max="3350" width="4.21875" style="1" customWidth="1"/>
+    <col min="3351" max="3589" width="10.88671875" style="1"/>
+    <col min="3590" max="3590" width="5.21875" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.5546875" style="1" customWidth="1"/>
     <col min="3592" max="3592" width="1" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="8.453125" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="4.21875" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="8.44140625" style="1" customWidth="1"/>
     <col min="3595" max="3595" width="1" style="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="7.453125" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.21875" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="7.44140625" style="1" customWidth="1"/>
     <col min="3598" max="3598" width="1" style="1" customWidth="1"/>
-    <col min="3599" max="3600" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3601" max="3601" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10.453125" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3604" max="3604" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3605" max="3605" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3606" max="3606" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3607" max="3845" width="10.90625" style="1"/>
-    <col min="3846" max="3846" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3599" max="3600" width="4.21875" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3604" max="3604" width="22.21875" style="1" customWidth="1"/>
+    <col min="3605" max="3605" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3606" max="3606" width="4.21875" style="1" customWidth="1"/>
+    <col min="3607" max="3845" width="10.88671875" style="1"/>
+    <col min="3846" max="3846" width="5.21875" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.5546875" style="1" customWidth="1"/>
     <col min="3848" max="3848" width="1" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="8.453125" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="4.21875" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="8.44140625" style="1" customWidth="1"/>
     <col min="3851" max="3851" width="1" style="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="7.453125" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.21875" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="7.44140625" style="1" customWidth="1"/>
     <col min="3854" max="3854" width="1" style="1" customWidth="1"/>
-    <col min="3855" max="3856" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3857" max="3857" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10.453125" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3860" max="3860" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3861" max="3861" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3862" max="3862" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3863" max="4101" width="10.90625" style="1"/>
-    <col min="4102" max="4102" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3855" max="3856" width="4.21875" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3860" max="3860" width="22.21875" style="1" customWidth="1"/>
+    <col min="3861" max="3861" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3862" max="3862" width="4.21875" style="1" customWidth="1"/>
+    <col min="3863" max="4101" width="10.88671875" style="1"/>
+    <col min="4102" max="4102" width="5.21875" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.5546875" style="1" customWidth="1"/>
     <col min="4104" max="4104" width="1" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="8.453125" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="4.21875" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="8.44140625" style="1" customWidth="1"/>
     <col min="4107" max="4107" width="1" style="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="7.453125" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.21875" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="7.44140625" style="1" customWidth="1"/>
     <col min="4110" max="4110" width="1" style="1" customWidth="1"/>
-    <col min="4111" max="4112" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4113" max="4113" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10.453125" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4116" max="4116" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4117" max="4117" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4118" max="4118" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4119" max="4357" width="10.90625" style="1"/>
-    <col min="4358" max="4358" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4111" max="4112" width="4.21875" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4116" max="4116" width="22.21875" style="1" customWidth="1"/>
+    <col min="4117" max="4117" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4118" max="4118" width="4.21875" style="1" customWidth="1"/>
+    <col min="4119" max="4357" width="10.88671875" style="1"/>
+    <col min="4358" max="4358" width="5.21875" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.5546875" style="1" customWidth="1"/>
     <col min="4360" max="4360" width="1" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="8.453125" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="4.21875" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="8.44140625" style="1" customWidth="1"/>
     <col min="4363" max="4363" width="1" style="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="7.453125" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.21875" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="7.44140625" style="1" customWidth="1"/>
     <col min="4366" max="4366" width="1" style="1" customWidth="1"/>
-    <col min="4367" max="4368" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4369" max="4369" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10.453125" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4372" max="4372" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4373" max="4373" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4374" max="4374" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4375" max="4613" width="10.90625" style="1"/>
-    <col min="4614" max="4614" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4367" max="4368" width="4.21875" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4372" max="4372" width="22.21875" style="1" customWidth="1"/>
+    <col min="4373" max="4373" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4374" max="4374" width="4.21875" style="1" customWidth="1"/>
+    <col min="4375" max="4613" width="10.88671875" style="1"/>
+    <col min="4614" max="4614" width="5.21875" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.5546875" style="1" customWidth="1"/>
     <col min="4616" max="4616" width="1" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="8.453125" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="4.21875" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="8.44140625" style="1" customWidth="1"/>
     <col min="4619" max="4619" width="1" style="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="7.453125" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.21875" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="7.44140625" style="1" customWidth="1"/>
     <col min="4622" max="4622" width="1" style="1" customWidth="1"/>
-    <col min="4623" max="4624" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4625" max="4625" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10.453125" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4628" max="4628" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4629" max="4629" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4630" max="4630" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4631" max="4869" width="10.90625" style="1"/>
-    <col min="4870" max="4870" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4623" max="4624" width="4.21875" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4628" max="4628" width="22.21875" style="1" customWidth="1"/>
+    <col min="4629" max="4629" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4630" max="4630" width="4.21875" style="1" customWidth="1"/>
+    <col min="4631" max="4869" width="10.88671875" style="1"/>
+    <col min="4870" max="4870" width="5.21875" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.5546875" style="1" customWidth="1"/>
     <col min="4872" max="4872" width="1" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="8.453125" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="4.21875" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="8.44140625" style="1" customWidth="1"/>
     <col min="4875" max="4875" width="1" style="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="7.453125" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.21875" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="7.44140625" style="1" customWidth="1"/>
     <col min="4878" max="4878" width="1" style="1" customWidth="1"/>
-    <col min="4879" max="4880" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4881" max="4881" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10.453125" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4884" max="4884" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4885" max="4885" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4886" max="4886" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4887" max="5125" width="10.90625" style="1"/>
-    <col min="5126" max="5126" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4879" max="4880" width="4.21875" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4884" max="4884" width="22.21875" style="1" customWidth="1"/>
+    <col min="4885" max="4885" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4886" max="4886" width="4.21875" style="1" customWidth="1"/>
+    <col min="4887" max="5125" width="10.88671875" style="1"/>
+    <col min="5126" max="5126" width="5.21875" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.5546875" style="1" customWidth="1"/>
     <col min="5128" max="5128" width="1" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="8.453125" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="4.21875" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="8.44140625" style="1" customWidth="1"/>
     <col min="5131" max="5131" width="1" style="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="7.453125" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.21875" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="7.44140625" style="1" customWidth="1"/>
     <col min="5134" max="5134" width="1" style="1" customWidth="1"/>
-    <col min="5135" max="5136" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5137" max="5137" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10.453125" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5140" max="5140" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5141" max="5141" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5142" max="5142" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5143" max="5381" width="10.90625" style="1"/>
-    <col min="5382" max="5382" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5135" max="5136" width="4.21875" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5140" max="5140" width="22.21875" style="1" customWidth="1"/>
+    <col min="5141" max="5141" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5142" max="5142" width="4.21875" style="1" customWidth="1"/>
+    <col min="5143" max="5381" width="10.88671875" style="1"/>
+    <col min="5382" max="5382" width="5.21875" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.5546875" style="1" customWidth="1"/>
     <col min="5384" max="5384" width="1" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="8.453125" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="4.21875" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="8.44140625" style="1" customWidth="1"/>
     <col min="5387" max="5387" width="1" style="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="7.453125" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.21875" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="7.44140625" style="1" customWidth="1"/>
     <col min="5390" max="5390" width="1" style="1" customWidth="1"/>
-    <col min="5391" max="5392" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5393" max="5393" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10.453125" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5396" max="5396" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5397" max="5397" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5398" max="5398" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5399" max="5637" width="10.90625" style="1"/>
-    <col min="5638" max="5638" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5391" max="5392" width="4.21875" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5396" max="5396" width="22.21875" style="1" customWidth="1"/>
+    <col min="5397" max="5397" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5398" max="5398" width="4.21875" style="1" customWidth="1"/>
+    <col min="5399" max="5637" width="10.88671875" style="1"/>
+    <col min="5638" max="5638" width="5.21875" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.5546875" style="1" customWidth="1"/>
     <col min="5640" max="5640" width="1" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="8.453125" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="4.21875" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="8.44140625" style="1" customWidth="1"/>
     <col min="5643" max="5643" width="1" style="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="7.453125" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.21875" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="7.44140625" style="1" customWidth="1"/>
     <col min="5646" max="5646" width="1" style="1" customWidth="1"/>
-    <col min="5647" max="5648" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5649" max="5649" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10.453125" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5652" max="5652" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5653" max="5653" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5654" max="5654" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5655" max="5893" width="10.90625" style="1"/>
-    <col min="5894" max="5894" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5647" max="5648" width="4.21875" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5652" max="5652" width="22.21875" style="1" customWidth="1"/>
+    <col min="5653" max="5653" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5654" max="5654" width="4.21875" style="1" customWidth="1"/>
+    <col min="5655" max="5893" width="10.88671875" style="1"/>
+    <col min="5894" max="5894" width="5.21875" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.5546875" style="1" customWidth="1"/>
     <col min="5896" max="5896" width="1" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="8.453125" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="4.21875" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="8.44140625" style="1" customWidth="1"/>
     <col min="5899" max="5899" width="1" style="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="7.453125" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.21875" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="7.44140625" style="1" customWidth="1"/>
     <col min="5902" max="5902" width="1" style="1" customWidth="1"/>
-    <col min="5903" max="5904" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5905" max="5905" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10.453125" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5908" max="5908" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5909" max="5909" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5910" max="5910" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5911" max="6149" width="10.90625" style="1"/>
-    <col min="6150" max="6150" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5903" max="5904" width="4.21875" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5908" max="5908" width="22.21875" style="1" customWidth="1"/>
+    <col min="5909" max="5909" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5910" max="5910" width="4.21875" style="1" customWidth="1"/>
+    <col min="5911" max="6149" width="10.88671875" style="1"/>
+    <col min="6150" max="6150" width="5.21875" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.5546875" style="1" customWidth="1"/>
     <col min="6152" max="6152" width="1" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="8.453125" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="4.21875" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="8.44140625" style="1" customWidth="1"/>
     <col min="6155" max="6155" width="1" style="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="7.453125" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.21875" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="7.44140625" style="1" customWidth="1"/>
     <col min="6158" max="6158" width="1" style="1" customWidth="1"/>
-    <col min="6159" max="6160" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6161" max="6161" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10.453125" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6164" max="6164" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6165" max="6165" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6166" max="6166" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6167" max="6405" width="10.90625" style="1"/>
-    <col min="6406" max="6406" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6159" max="6160" width="4.21875" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6164" max="6164" width="22.21875" style="1" customWidth="1"/>
+    <col min="6165" max="6165" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6166" max="6166" width="4.21875" style="1" customWidth="1"/>
+    <col min="6167" max="6405" width="10.88671875" style="1"/>
+    <col min="6406" max="6406" width="5.21875" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.5546875" style="1" customWidth="1"/>
     <col min="6408" max="6408" width="1" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="8.453125" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="4.21875" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="8.44140625" style="1" customWidth="1"/>
     <col min="6411" max="6411" width="1" style="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="7.453125" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.21875" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="7.44140625" style="1" customWidth="1"/>
     <col min="6414" max="6414" width="1" style="1" customWidth="1"/>
-    <col min="6415" max="6416" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6417" max="6417" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10.453125" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6420" max="6420" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6421" max="6421" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6422" max="6422" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6423" max="6661" width="10.90625" style="1"/>
-    <col min="6662" max="6662" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6415" max="6416" width="4.21875" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6420" max="6420" width="22.21875" style="1" customWidth="1"/>
+    <col min="6421" max="6421" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6422" max="6422" width="4.21875" style="1" customWidth="1"/>
+    <col min="6423" max="6661" width="10.88671875" style="1"/>
+    <col min="6662" max="6662" width="5.21875" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.5546875" style="1" customWidth="1"/>
     <col min="6664" max="6664" width="1" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="8.453125" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="4.21875" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="8.44140625" style="1" customWidth="1"/>
     <col min="6667" max="6667" width="1" style="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="7.453125" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.21875" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="7.44140625" style="1" customWidth="1"/>
     <col min="6670" max="6670" width="1" style="1" customWidth="1"/>
-    <col min="6671" max="6672" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6673" max="6673" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10.453125" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6676" max="6676" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6677" max="6677" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6678" max="6678" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6679" max="6917" width="10.90625" style="1"/>
-    <col min="6918" max="6918" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6671" max="6672" width="4.21875" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6676" max="6676" width="22.21875" style="1" customWidth="1"/>
+    <col min="6677" max="6677" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6678" max="6678" width="4.21875" style="1" customWidth="1"/>
+    <col min="6679" max="6917" width="10.88671875" style="1"/>
+    <col min="6918" max="6918" width="5.21875" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.5546875" style="1" customWidth="1"/>
     <col min="6920" max="6920" width="1" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="8.453125" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="4.21875" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="8.44140625" style="1" customWidth="1"/>
     <col min="6923" max="6923" width="1" style="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="7.453125" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.21875" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="7.44140625" style="1" customWidth="1"/>
     <col min="6926" max="6926" width="1" style="1" customWidth="1"/>
-    <col min="6927" max="6928" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6929" max="6929" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10.453125" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6932" max="6932" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6933" max="6933" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6934" max="6934" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6935" max="7173" width="10.90625" style="1"/>
-    <col min="7174" max="7174" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6927" max="6928" width="4.21875" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6932" max="6932" width="22.21875" style="1" customWidth="1"/>
+    <col min="6933" max="6933" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6934" max="6934" width="4.21875" style="1" customWidth="1"/>
+    <col min="6935" max="7173" width="10.88671875" style="1"/>
+    <col min="7174" max="7174" width="5.21875" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.5546875" style="1" customWidth="1"/>
     <col min="7176" max="7176" width="1" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="8.453125" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="4.21875" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="8.44140625" style="1" customWidth="1"/>
     <col min="7179" max="7179" width="1" style="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="7.453125" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.21875" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="7.44140625" style="1" customWidth="1"/>
     <col min="7182" max="7182" width="1" style="1" customWidth="1"/>
-    <col min="7183" max="7184" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7185" max="7185" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10.453125" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7188" max="7188" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7189" max="7189" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7190" max="7190" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7191" max="7429" width="10.90625" style="1"/>
-    <col min="7430" max="7430" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7183" max="7184" width="4.21875" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7188" max="7188" width="22.21875" style="1" customWidth="1"/>
+    <col min="7189" max="7189" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7190" max="7190" width="4.21875" style="1" customWidth="1"/>
+    <col min="7191" max="7429" width="10.88671875" style="1"/>
+    <col min="7430" max="7430" width="5.21875" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.5546875" style="1" customWidth="1"/>
     <col min="7432" max="7432" width="1" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="8.453125" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="4.21875" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="8.44140625" style="1" customWidth="1"/>
     <col min="7435" max="7435" width="1" style="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="7.453125" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.21875" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="7.44140625" style="1" customWidth="1"/>
     <col min="7438" max="7438" width="1" style="1" customWidth="1"/>
-    <col min="7439" max="7440" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7441" max="7441" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10.453125" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7444" max="7444" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7445" max="7445" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7446" max="7446" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7447" max="7685" width="10.90625" style="1"/>
-    <col min="7686" max="7686" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7439" max="7440" width="4.21875" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7444" max="7444" width="22.21875" style="1" customWidth="1"/>
+    <col min="7445" max="7445" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7446" max="7446" width="4.21875" style="1" customWidth="1"/>
+    <col min="7447" max="7685" width="10.88671875" style="1"/>
+    <col min="7686" max="7686" width="5.21875" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.5546875" style="1" customWidth="1"/>
     <col min="7688" max="7688" width="1" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="8.453125" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="4.21875" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="8.44140625" style="1" customWidth="1"/>
     <col min="7691" max="7691" width="1" style="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="7.453125" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.21875" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="7.44140625" style="1" customWidth="1"/>
     <col min="7694" max="7694" width="1" style="1" customWidth="1"/>
-    <col min="7695" max="7696" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7697" max="7697" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10.453125" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7700" max="7700" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7701" max="7701" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7702" max="7702" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7703" max="7941" width="10.90625" style="1"/>
-    <col min="7942" max="7942" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7695" max="7696" width="4.21875" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7700" max="7700" width="22.21875" style="1" customWidth="1"/>
+    <col min="7701" max="7701" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7702" max="7702" width="4.21875" style="1" customWidth="1"/>
+    <col min="7703" max="7941" width="10.88671875" style="1"/>
+    <col min="7942" max="7942" width="5.21875" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.5546875" style="1" customWidth="1"/>
     <col min="7944" max="7944" width="1" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="8.453125" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="4.21875" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="8.44140625" style="1" customWidth="1"/>
     <col min="7947" max="7947" width="1" style="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="7.453125" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.21875" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="7.44140625" style="1" customWidth="1"/>
     <col min="7950" max="7950" width="1" style="1" customWidth="1"/>
-    <col min="7951" max="7952" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7953" max="7953" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10.453125" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7956" max="7956" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7957" max="7957" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7958" max="7958" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7959" max="8197" width="10.90625" style="1"/>
-    <col min="8198" max="8198" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7951" max="7952" width="4.21875" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7956" max="7956" width="22.21875" style="1" customWidth="1"/>
+    <col min="7957" max="7957" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7958" max="7958" width="4.21875" style="1" customWidth="1"/>
+    <col min="7959" max="8197" width="10.88671875" style="1"/>
+    <col min="8198" max="8198" width="5.21875" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.5546875" style="1" customWidth="1"/>
     <col min="8200" max="8200" width="1" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="8.453125" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="4.21875" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="8.44140625" style="1" customWidth="1"/>
     <col min="8203" max="8203" width="1" style="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="7.453125" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.21875" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="7.44140625" style="1" customWidth="1"/>
     <col min="8206" max="8206" width="1" style="1" customWidth="1"/>
-    <col min="8207" max="8208" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8209" max="8209" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10.453125" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8212" max="8212" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8213" max="8213" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8214" max="8214" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8215" max="8453" width="10.90625" style="1"/>
-    <col min="8454" max="8454" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8207" max="8208" width="4.21875" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8212" max="8212" width="22.21875" style="1" customWidth="1"/>
+    <col min="8213" max="8213" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8214" max="8214" width="4.21875" style="1" customWidth="1"/>
+    <col min="8215" max="8453" width="10.88671875" style="1"/>
+    <col min="8454" max="8454" width="5.21875" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.5546875" style="1" customWidth="1"/>
     <col min="8456" max="8456" width="1" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="8.453125" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="4.21875" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="8.44140625" style="1" customWidth="1"/>
     <col min="8459" max="8459" width="1" style="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="7.453125" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.21875" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="7.44140625" style="1" customWidth="1"/>
     <col min="8462" max="8462" width="1" style="1" customWidth="1"/>
-    <col min="8463" max="8464" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8465" max="8465" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10.453125" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8468" max="8468" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8469" max="8469" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8470" max="8470" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8471" max="8709" width="10.90625" style="1"/>
-    <col min="8710" max="8710" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8463" max="8464" width="4.21875" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8468" max="8468" width="22.21875" style="1" customWidth="1"/>
+    <col min="8469" max="8469" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8470" max="8470" width="4.21875" style="1" customWidth="1"/>
+    <col min="8471" max="8709" width="10.88671875" style="1"/>
+    <col min="8710" max="8710" width="5.21875" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.5546875" style="1" customWidth="1"/>
     <col min="8712" max="8712" width="1" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="8.453125" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="4.21875" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="8.44140625" style="1" customWidth="1"/>
     <col min="8715" max="8715" width="1" style="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="7.453125" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.21875" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="7.44140625" style="1" customWidth="1"/>
     <col min="8718" max="8718" width="1" style="1" customWidth="1"/>
-    <col min="8719" max="8720" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8721" max="8721" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10.453125" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8724" max="8724" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8725" max="8725" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8726" max="8726" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8727" max="8965" width="10.90625" style="1"/>
-    <col min="8966" max="8966" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8719" max="8720" width="4.21875" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8724" max="8724" width="22.21875" style="1" customWidth="1"/>
+    <col min="8725" max="8725" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8726" max="8726" width="4.21875" style="1" customWidth="1"/>
+    <col min="8727" max="8965" width="10.88671875" style="1"/>
+    <col min="8966" max="8966" width="5.21875" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.5546875" style="1" customWidth="1"/>
     <col min="8968" max="8968" width="1" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="8.453125" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="4.21875" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="8.44140625" style="1" customWidth="1"/>
     <col min="8971" max="8971" width="1" style="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="7.453125" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.21875" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="7.44140625" style="1" customWidth="1"/>
     <col min="8974" max="8974" width="1" style="1" customWidth="1"/>
-    <col min="8975" max="8976" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8977" max="8977" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10.453125" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8980" max="8980" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8981" max="8981" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8982" max="8982" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8983" max="9221" width="10.90625" style="1"/>
-    <col min="9222" max="9222" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8975" max="8976" width="4.21875" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8980" max="8980" width="22.21875" style="1" customWidth="1"/>
+    <col min="8981" max="8981" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8982" max="8982" width="4.21875" style="1" customWidth="1"/>
+    <col min="8983" max="9221" width="10.88671875" style="1"/>
+    <col min="9222" max="9222" width="5.21875" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.5546875" style="1" customWidth="1"/>
     <col min="9224" max="9224" width="1" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="8.453125" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="4.21875" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="8.44140625" style="1" customWidth="1"/>
     <col min="9227" max="9227" width="1" style="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="7.453125" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.21875" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="7.44140625" style="1" customWidth="1"/>
     <col min="9230" max="9230" width="1" style="1" customWidth="1"/>
-    <col min="9231" max="9232" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9233" max="9233" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10.453125" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9236" max="9236" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9237" max="9237" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9238" max="9238" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9239" max="9477" width="10.90625" style="1"/>
-    <col min="9478" max="9478" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9231" max="9232" width="4.21875" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9236" max="9236" width="22.21875" style="1" customWidth="1"/>
+    <col min="9237" max="9237" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9238" max="9238" width="4.21875" style="1" customWidth="1"/>
+    <col min="9239" max="9477" width="10.88671875" style="1"/>
+    <col min="9478" max="9478" width="5.21875" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.5546875" style="1" customWidth="1"/>
     <col min="9480" max="9480" width="1" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="8.453125" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="4.21875" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="8.44140625" style="1" customWidth="1"/>
     <col min="9483" max="9483" width="1" style="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="7.453125" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.21875" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="7.44140625" style="1" customWidth="1"/>
     <col min="9486" max="9486" width="1" style="1" customWidth="1"/>
-    <col min="9487" max="9488" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9489" max="9489" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10.453125" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9492" max="9492" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9493" max="9493" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9494" max="9494" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9495" max="9733" width="10.90625" style="1"/>
-    <col min="9734" max="9734" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9487" max="9488" width="4.21875" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9492" max="9492" width="22.21875" style="1" customWidth="1"/>
+    <col min="9493" max="9493" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9494" max="9494" width="4.21875" style="1" customWidth="1"/>
+    <col min="9495" max="9733" width="10.88671875" style="1"/>
+    <col min="9734" max="9734" width="5.21875" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.5546875" style="1" customWidth="1"/>
     <col min="9736" max="9736" width="1" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="8.453125" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="4.21875" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="8.44140625" style="1" customWidth="1"/>
     <col min="9739" max="9739" width="1" style="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="7.453125" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.21875" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="7.44140625" style="1" customWidth="1"/>
     <col min="9742" max="9742" width="1" style="1" customWidth="1"/>
-    <col min="9743" max="9744" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9745" max="9745" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10.453125" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9748" max="9748" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9749" max="9749" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9750" max="9750" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9751" max="9989" width="10.90625" style="1"/>
-    <col min="9990" max="9990" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9743" max="9744" width="4.21875" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9748" max="9748" width="22.21875" style="1" customWidth="1"/>
+    <col min="9749" max="9749" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9750" max="9750" width="4.21875" style="1" customWidth="1"/>
+    <col min="9751" max="9989" width="10.88671875" style="1"/>
+    <col min="9990" max="9990" width="5.21875" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.5546875" style="1" customWidth="1"/>
     <col min="9992" max="9992" width="1" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="8.453125" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="4.21875" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="8.44140625" style="1" customWidth="1"/>
     <col min="9995" max="9995" width="1" style="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="7.453125" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.21875" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="7.44140625" style="1" customWidth="1"/>
     <col min="9998" max="9998" width="1" style="1" customWidth="1"/>
-    <col min="9999" max="10000" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10001" max="10001" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10.453125" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10004" max="10004" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10005" max="10005" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10006" max="10006" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10007" max="10245" width="10.90625" style="1"/>
-    <col min="10246" max="10246" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9999" max="10000" width="4.21875" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10004" max="10004" width="22.21875" style="1" customWidth="1"/>
+    <col min="10005" max="10005" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10006" max="10006" width="4.21875" style="1" customWidth="1"/>
+    <col min="10007" max="10245" width="10.88671875" style="1"/>
+    <col min="10246" max="10246" width="5.21875" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.5546875" style="1" customWidth="1"/>
     <col min="10248" max="10248" width="1" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="8.453125" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="4.21875" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="8.44140625" style="1" customWidth="1"/>
     <col min="10251" max="10251" width="1" style="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="7.453125" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.21875" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="7.44140625" style="1" customWidth="1"/>
     <col min="10254" max="10254" width="1" style="1" customWidth="1"/>
-    <col min="10255" max="10256" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10257" max="10257" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10.453125" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10260" max="10260" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10261" max="10261" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10262" max="10262" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10263" max="10501" width="10.90625" style="1"/>
-    <col min="10502" max="10502" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10255" max="10256" width="4.21875" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10260" max="10260" width="22.21875" style="1" customWidth="1"/>
+    <col min="10261" max="10261" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10262" max="10262" width="4.21875" style="1" customWidth="1"/>
+    <col min="10263" max="10501" width="10.88671875" style="1"/>
+    <col min="10502" max="10502" width="5.21875" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.5546875" style="1" customWidth="1"/>
     <col min="10504" max="10504" width="1" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="8.453125" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="4.21875" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="8.44140625" style="1" customWidth="1"/>
     <col min="10507" max="10507" width="1" style="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="7.453125" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.21875" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="7.44140625" style="1" customWidth="1"/>
     <col min="10510" max="10510" width="1" style="1" customWidth="1"/>
-    <col min="10511" max="10512" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10513" max="10513" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10.453125" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10516" max="10516" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10517" max="10517" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10518" max="10518" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10519" max="10757" width="10.90625" style="1"/>
-    <col min="10758" max="10758" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10511" max="10512" width="4.21875" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10516" max="10516" width="22.21875" style="1" customWidth="1"/>
+    <col min="10517" max="10517" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10518" max="10518" width="4.21875" style="1" customWidth="1"/>
+    <col min="10519" max="10757" width="10.88671875" style="1"/>
+    <col min="10758" max="10758" width="5.21875" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.5546875" style="1" customWidth="1"/>
     <col min="10760" max="10760" width="1" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="8.453125" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="4.21875" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="8.44140625" style="1" customWidth="1"/>
     <col min="10763" max="10763" width="1" style="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="7.453125" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.21875" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="7.44140625" style="1" customWidth="1"/>
     <col min="10766" max="10766" width="1" style="1" customWidth="1"/>
-    <col min="10767" max="10768" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10769" max="10769" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10.453125" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10772" max="10772" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10773" max="10773" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10774" max="10774" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10775" max="11013" width="10.90625" style="1"/>
-    <col min="11014" max="11014" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10767" max="10768" width="4.21875" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10772" max="10772" width="22.21875" style="1" customWidth="1"/>
+    <col min="10773" max="10773" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10774" max="10774" width="4.21875" style="1" customWidth="1"/>
+    <col min="10775" max="11013" width="10.88671875" style="1"/>
+    <col min="11014" max="11014" width="5.21875" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.5546875" style="1" customWidth="1"/>
     <col min="11016" max="11016" width="1" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="8.453125" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="4.21875" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="8.44140625" style="1" customWidth="1"/>
     <col min="11019" max="11019" width="1" style="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="7.453125" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.21875" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="7.44140625" style="1" customWidth="1"/>
     <col min="11022" max="11022" width="1" style="1" customWidth="1"/>
-    <col min="11023" max="11024" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11025" max="11025" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10.453125" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11028" max="11028" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11029" max="11029" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11030" max="11030" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11031" max="11269" width="10.90625" style="1"/>
-    <col min="11270" max="11270" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11023" max="11024" width="4.21875" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11028" max="11028" width="22.21875" style="1" customWidth="1"/>
+    <col min="11029" max="11029" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11030" max="11030" width="4.21875" style="1" customWidth="1"/>
+    <col min="11031" max="11269" width="10.88671875" style="1"/>
+    <col min="11270" max="11270" width="5.21875" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.5546875" style="1" customWidth="1"/>
     <col min="11272" max="11272" width="1" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="8.453125" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="4.21875" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="8.44140625" style="1" customWidth="1"/>
     <col min="11275" max="11275" width="1" style="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="7.453125" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.21875" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="7.44140625" style="1" customWidth="1"/>
     <col min="11278" max="11278" width="1" style="1" customWidth="1"/>
-    <col min="11279" max="11280" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11281" max="11281" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10.453125" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11284" max="11284" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11285" max="11285" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11286" max="11286" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11287" max="11525" width="10.90625" style="1"/>
-    <col min="11526" max="11526" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11279" max="11280" width="4.21875" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11284" max="11284" width="22.21875" style="1" customWidth="1"/>
+    <col min="11285" max="11285" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11286" max="11286" width="4.21875" style="1" customWidth="1"/>
+    <col min="11287" max="11525" width="10.88671875" style="1"/>
+    <col min="11526" max="11526" width="5.21875" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.5546875" style="1" customWidth="1"/>
     <col min="11528" max="11528" width="1" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="8.453125" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="4.21875" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="8.44140625" style="1" customWidth="1"/>
     <col min="11531" max="11531" width="1" style="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="7.453125" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.21875" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="7.44140625" style="1" customWidth="1"/>
     <col min="11534" max="11534" width="1" style="1" customWidth="1"/>
-    <col min="11535" max="11536" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11537" max="11537" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10.453125" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11540" max="11540" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11541" max="11541" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11542" max="11542" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11543" max="11781" width="10.90625" style="1"/>
-    <col min="11782" max="11782" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11535" max="11536" width="4.21875" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11540" max="11540" width="22.21875" style="1" customWidth="1"/>
+    <col min="11541" max="11541" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11542" max="11542" width="4.21875" style="1" customWidth="1"/>
+    <col min="11543" max="11781" width="10.88671875" style="1"/>
+    <col min="11782" max="11782" width="5.21875" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.5546875" style="1" customWidth="1"/>
     <col min="11784" max="11784" width="1" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="8.453125" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="4.21875" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="8.44140625" style="1" customWidth="1"/>
     <col min="11787" max="11787" width="1" style="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="7.453125" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.21875" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="7.44140625" style="1" customWidth="1"/>
     <col min="11790" max="11790" width="1" style="1" customWidth="1"/>
-    <col min="11791" max="11792" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11793" max="11793" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10.453125" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11796" max="11796" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11797" max="11797" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11798" max="11798" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11799" max="12037" width="10.90625" style="1"/>
-    <col min="12038" max="12038" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11791" max="11792" width="4.21875" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11796" max="11796" width="22.21875" style="1" customWidth="1"/>
+    <col min="11797" max="11797" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11798" max="11798" width="4.21875" style="1" customWidth="1"/>
+    <col min="11799" max="12037" width="10.88671875" style="1"/>
+    <col min="12038" max="12038" width="5.21875" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.5546875" style="1" customWidth="1"/>
     <col min="12040" max="12040" width="1" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="8.453125" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="4.21875" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="8.44140625" style="1" customWidth="1"/>
     <col min="12043" max="12043" width="1" style="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="7.453125" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.21875" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="7.44140625" style="1" customWidth="1"/>
     <col min="12046" max="12046" width="1" style="1" customWidth="1"/>
-    <col min="12047" max="12048" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12049" max="12049" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10.453125" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12052" max="12052" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12053" max="12053" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12054" max="12054" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12055" max="12293" width="10.90625" style="1"/>
-    <col min="12294" max="12294" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12047" max="12048" width="4.21875" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12052" max="12052" width="22.21875" style="1" customWidth="1"/>
+    <col min="12053" max="12053" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12054" max="12054" width="4.21875" style="1" customWidth="1"/>
+    <col min="12055" max="12293" width="10.88671875" style="1"/>
+    <col min="12294" max="12294" width="5.21875" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.5546875" style="1" customWidth="1"/>
     <col min="12296" max="12296" width="1" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="8.453125" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="4.21875" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="8.44140625" style="1" customWidth="1"/>
     <col min="12299" max="12299" width="1" style="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="7.453125" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.21875" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="7.44140625" style="1" customWidth="1"/>
     <col min="12302" max="12302" width="1" style="1" customWidth="1"/>
-    <col min="12303" max="12304" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12305" max="12305" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10.453125" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12308" max="12308" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12309" max="12309" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12310" max="12310" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12311" max="12549" width="10.90625" style="1"/>
-    <col min="12550" max="12550" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12303" max="12304" width="4.21875" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12308" max="12308" width="22.21875" style="1" customWidth="1"/>
+    <col min="12309" max="12309" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12310" max="12310" width="4.21875" style="1" customWidth="1"/>
+    <col min="12311" max="12549" width="10.88671875" style="1"/>
+    <col min="12550" max="12550" width="5.21875" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.5546875" style="1" customWidth="1"/>
     <col min="12552" max="12552" width="1" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="8.453125" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="4.21875" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="8.44140625" style="1" customWidth="1"/>
     <col min="12555" max="12555" width="1" style="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="7.453125" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.21875" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="7.44140625" style="1" customWidth="1"/>
     <col min="12558" max="12558" width="1" style="1" customWidth="1"/>
-    <col min="12559" max="12560" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12561" max="12561" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10.453125" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12564" max="12564" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12565" max="12565" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12566" max="12566" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12567" max="12805" width="10.90625" style="1"/>
-    <col min="12806" max="12806" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12559" max="12560" width="4.21875" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12564" max="12564" width="22.21875" style="1" customWidth="1"/>
+    <col min="12565" max="12565" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12566" max="12566" width="4.21875" style="1" customWidth="1"/>
+    <col min="12567" max="12805" width="10.88671875" style="1"/>
+    <col min="12806" max="12806" width="5.21875" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.5546875" style="1" customWidth="1"/>
     <col min="12808" max="12808" width="1" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="8.453125" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="4.21875" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="8.44140625" style="1" customWidth="1"/>
     <col min="12811" max="12811" width="1" style="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="7.453125" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.21875" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="7.44140625" style="1" customWidth="1"/>
     <col min="12814" max="12814" width="1" style="1" customWidth="1"/>
-    <col min="12815" max="12816" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12817" max="12817" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10.453125" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12820" max="12820" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12821" max="12821" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12822" max="12822" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12823" max="13061" width="10.90625" style="1"/>
-    <col min="13062" max="13062" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12815" max="12816" width="4.21875" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12820" max="12820" width="22.21875" style="1" customWidth="1"/>
+    <col min="12821" max="12821" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12822" max="12822" width="4.21875" style="1" customWidth="1"/>
+    <col min="12823" max="13061" width="10.88671875" style="1"/>
+    <col min="13062" max="13062" width="5.21875" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.5546875" style="1" customWidth="1"/>
     <col min="13064" max="13064" width="1" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="8.453125" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="4.21875" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="8.44140625" style="1" customWidth="1"/>
     <col min="13067" max="13067" width="1" style="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="7.453125" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.21875" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="7.44140625" style="1" customWidth="1"/>
     <col min="13070" max="13070" width="1" style="1" customWidth="1"/>
-    <col min="13071" max="13072" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13073" max="13073" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10.453125" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13076" max="13076" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13077" max="13077" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13078" max="13078" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13079" max="13317" width="10.90625" style="1"/>
-    <col min="13318" max="13318" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13071" max="13072" width="4.21875" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13076" max="13076" width="22.21875" style="1" customWidth="1"/>
+    <col min="13077" max="13077" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13078" max="13078" width="4.21875" style="1" customWidth="1"/>
+    <col min="13079" max="13317" width="10.88671875" style="1"/>
+    <col min="13318" max="13318" width="5.21875" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.5546875" style="1" customWidth="1"/>
     <col min="13320" max="13320" width="1" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="8.453125" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="4.21875" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="8.44140625" style="1" customWidth="1"/>
     <col min="13323" max="13323" width="1" style="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="7.453125" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.21875" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="7.44140625" style="1" customWidth="1"/>
     <col min="13326" max="13326" width="1" style="1" customWidth="1"/>
-    <col min="13327" max="13328" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13329" max="13329" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10.453125" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13332" max="13332" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13333" max="13333" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13334" max="13334" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13335" max="13573" width="10.90625" style="1"/>
-    <col min="13574" max="13574" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13327" max="13328" width="4.21875" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13332" max="13332" width="22.21875" style="1" customWidth="1"/>
+    <col min="13333" max="13333" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13334" max="13334" width="4.21875" style="1" customWidth="1"/>
+    <col min="13335" max="13573" width="10.88671875" style="1"/>
+    <col min="13574" max="13574" width="5.21875" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.5546875" style="1" customWidth="1"/>
     <col min="13576" max="13576" width="1" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="8.453125" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="4.21875" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="8.44140625" style="1" customWidth="1"/>
     <col min="13579" max="13579" width="1" style="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="7.453125" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.21875" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="7.44140625" style="1" customWidth="1"/>
     <col min="13582" max="13582" width="1" style="1" customWidth="1"/>
-    <col min="13583" max="13584" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13585" max="13585" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10.453125" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13588" max="13588" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13589" max="13589" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13590" max="13590" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13591" max="13829" width="10.90625" style="1"/>
-    <col min="13830" max="13830" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13583" max="13584" width="4.21875" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13588" max="13588" width="22.21875" style="1" customWidth="1"/>
+    <col min="13589" max="13589" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13590" max="13590" width="4.21875" style="1" customWidth="1"/>
+    <col min="13591" max="13829" width="10.88671875" style="1"/>
+    <col min="13830" max="13830" width="5.21875" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.5546875" style="1" customWidth="1"/>
     <col min="13832" max="13832" width="1" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="8.453125" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="4.21875" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="8.44140625" style="1" customWidth="1"/>
     <col min="13835" max="13835" width="1" style="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="7.453125" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.21875" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="7.44140625" style="1" customWidth="1"/>
     <col min="13838" max="13838" width="1" style="1" customWidth="1"/>
-    <col min="13839" max="13840" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13841" max="13841" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10.453125" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13844" max="13844" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13845" max="13845" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13846" max="13846" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13847" max="14085" width="10.90625" style="1"/>
-    <col min="14086" max="14086" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13839" max="13840" width="4.21875" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13844" max="13844" width="22.21875" style="1" customWidth="1"/>
+    <col min="13845" max="13845" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13846" max="13846" width="4.21875" style="1" customWidth="1"/>
+    <col min="13847" max="14085" width="10.88671875" style="1"/>
+    <col min="14086" max="14086" width="5.21875" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.5546875" style="1" customWidth="1"/>
     <col min="14088" max="14088" width="1" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="8.453125" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="4.21875" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="8.44140625" style="1" customWidth="1"/>
     <col min="14091" max="14091" width="1" style="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="7.453125" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.21875" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="7.44140625" style="1" customWidth="1"/>
     <col min="14094" max="14094" width="1" style="1" customWidth="1"/>
-    <col min="14095" max="14096" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14097" max="14097" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10.453125" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14100" max="14100" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14101" max="14101" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14102" max="14102" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14103" max="14341" width="10.90625" style="1"/>
-    <col min="14342" max="14342" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14095" max="14096" width="4.21875" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14100" max="14100" width="22.21875" style="1" customWidth="1"/>
+    <col min="14101" max="14101" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14102" max="14102" width="4.21875" style="1" customWidth="1"/>
+    <col min="14103" max="14341" width="10.88671875" style="1"/>
+    <col min="14342" max="14342" width="5.21875" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.5546875" style="1" customWidth="1"/>
     <col min="14344" max="14344" width="1" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="8.453125" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="4.21875" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="8.44140625" style="1" customWidth="1"/>
     <col min="14347" max="14347" width="1" style="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="7.453125" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.21875" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="7.44140625" style="1" customWidth="1"/>
     <col min="14350" max="14350" width="1" style="1" customWidth="1"/>
-    <col min="14351" max="14352" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14353" max="14353" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10.453125" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14356" max="14356" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14357" max="14357" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14358" max="14358" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14359" max="14597" width="10.90625" style="1"/>
-    <col min="14598" max="14598" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14351" max="14352" width="4.21875" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14356" max="14356" width="22.21875" style="1" customWidth="1"/>
+    <col min="14357" max="14357" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14358" max="14358" width="4.21875" style="1" customWidth="1"/>
+    <col min="14359" max="14597" width="10.88671875" style="1"/>
+    <col min="14598" max="14598" width="5.21875" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.5546875" style="1" customWidth="1"/>
     <col min="14600" max="14600" width="1" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="8.453125" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="4.21875" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="8.44140625" style="1" customWidth="1"/>
     <col min="14603" max="14603" width="1" style="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="7.453125" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.21875" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="7.44140625" style="1" customWidth="1"/>
     <col min="14606" max="14606" width="1" style="1" customWidth="1"/>
-    <col min="14607" max="14608" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14609" max="14609" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10.453125" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14612" max="14612" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14613" max="14613" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14614" max="14614" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14615" max="14853" width="10.90625" style="1"/>
-    <col min="14854" max="14854" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14607" max="14608" width="4.21875" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14612" max="14612" width="22.21875" style="1" customWidth="1"/>
+    <col min="14613" max="14613" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14614" max="14614" width="4.21875" style="1" customWidth="1"/>
+    <col min="14615" max="14853" width="10.88671875" style="1"/>
+    <col min="14854" max="14854" width="5.21875" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.5546875" style="1" customWidth="1"/>
     <col min="14856" max="14856" width="1" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="8.453125" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="4.21875" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="8.44140625" style="1" customWidth="1"/>
     <col min="14859" max="14859" width="1" style="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="7.453125" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.21875" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="7.44140625" style="1" customWidth="1"/>
     <col min="14862" max="14862" width="1" style="1" customWidth="1"/>
-    <col min="14863" max="14864" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14865" max="14865" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10.453125" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14868" max="14868" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14869" max="14869" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14870" max="14870" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14871" max="15109" width="10.90625" style="1"/>
-    <col min="15110" max="15110" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14863" max="14864" width="4.21875" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14868" max="14868" width="22.21875" style="1" customWidth="1"/>
+    <col min="14869" max="14869" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14870" max="14870" width="4.21875" style="1" customWidth="1"/>
+    <col min="14871" max="15109" width="10.88671875" style="1"/>
+    <col min="15110" max="15110" width="5.21875" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.5546875" style="1" customWidth="1"/>
     <col min="15112" max="15112" width="1" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="8.453125" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="4.21875" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="8.44140625" style="1" customWidth="1"/>
     <col min="15115" max="15115" width="1" style="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="7.453125" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.21875" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="7.44140625" style="1" customWidth="1"/>
     <col min="15118" max="15118" width="1" style="1" customWidth="1"/>
-    <col min="15119" max="15120" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15121" max="15121" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10.453125" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15124" max="15124" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15125" max="15125" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15126" max="15126" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15127" max="15365" width="10.90625" style="1"/>
-    <col min="15366" max="15366" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15119" max="15120" width="4.21875" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15124" max="15124" width="22.21875" style="1" customWidth="1"/>
+    <col min="15125" max="15125" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15126" max="15126" width="4.21875" style="1" customWidth="1"/>
+    <col min="15127" max="15365" width="10.88671875" style="1"/>
+    <col min="15366" max="15366" width="5.21875" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.5546875" style="1" customWidth="1"/>
     <col min="15368" max="15368" width="1" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="8.453125" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="4.21875" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="8.44140625" style="1" customWidth="1"/>
     <col min="15371" max="15371" width="1" style="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="7.453125" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.21875" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="7.44140625" style="1" customWidth="1"/>
     <col min="15374" max="15374" width="1" style="1" customWidth="1"/>
-    <col min="15375" max="15376" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15377" max="15377" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10.453125" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15380" max="15380" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15381" max="15381" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15382" max="15382" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15383" max="15621" width="10.90625" style="1"/>
-    <col min="15622" max="15622" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15375" max="15376" width="4.21875" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15380" max="15380" width="22.21875" style="1" customWidth="1"/>
+    <col min="15381" max="15381" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15382" max="15382" width="4.21875" style="1" customWidth="1"/>
+    <col min="15383" max="15621" width="10.88671875" style="1"/>
+    <col min="15622" max="15622" width="5.21875" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.5546875" style="1" customWidth="1"/>
     <col min="15624" max="15624" width="1" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="8.453125" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="4.21875" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="8.44140625" style="1" customWidth="1"/>
     <col min="15627" max="15627" width="1" style="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="7.453125" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.21875" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="7.44140625" style="1" customWidth="1"/>
     <col min="15630" max="15630" width="1" style="1" customWidth="1"/>
-    <col min="15631" max="15632" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15633" max="15633" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10.453125" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15636" max="15636" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15637" max="15637" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15638" max="15638" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15639" max="15877" width="10.90625" style="1"/>
-    <col min="15878" max="15878" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15631" max="15632" width="4.21875" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15636" max="15636" width="22.21875" style="1" customWidth="1"/>
+    <col min="15637" max="15637" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15638" max="15638" width="4.21875" style="1" customWidth="1"/>
+    <col min="15639" max="15877" width="10.88671875" style="1"/>
+    <col min="15878" max="15878" width="5.21875" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.5546875" style="1" customWidth="1"/>
     <col min="15880" max="15880" width="1" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="8.453125" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="4.21875" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="8.44140625" style="1" customWidth="1"/>
     <col min="15883" max="15883" width="1" style="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="7.453125" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.21875" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="7.44140625" style="1" customWidth="1"/>
     <col min="15886" max="15886" width="1" style="1" customWidth="1"/>
-    <col min="15887" max="15888" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15889" max="15889" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10.453125" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15892" max="15892" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15893" max="15893" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15894" max="15894" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15895" max="16133" width="10.90625" style="1"/>
-    <col min="16134" max="16134" width="5.1796875" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15887" max="15888" width="4.21875" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15892" max="15892" width="22.21875" style="1" customWidth="1"/>
+    <col min="15893" max="15893" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15894" max="15894" width="4.21875" style="1" customWidth="1"/>
+    <col min="15895" max="16133" width="10.88671875" style="1"/>
+    <col min="16134" max="16134" width="5.21875" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.5546875" style="1" customWidth="1"/>
     <col min="16136" max="16136" width="1" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="8.453125" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="4.21875" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="8.44140625" style="1" customWidth="1"/>
     <col min="16139" max="16139" width="1" style="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="7.453125" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.21875" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="7.44140625" style="1" customWidth="1"/>
     <col min="16142" max="16142" width="1" style="1" customWidth="1"/>
-    <col min="16143" max="16144" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16145" max="16145" width="7.7265625" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10.453125" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="12.7265625" style="1" customWidth="1"/>
-    <col min="16148" max="16148" width="22.26953125" style="1" customWidth="1"/>
-    <col min="16149" max="16149" width="0.7265625" style="1" customWidth="1"/>
-    <col min="16150" max="16150" width="4.1796875" style="1" customWidth="1"/>
-    <col min="16151" max="16384" width="10.90625" style="1"/>
+    <col min="16143" max="16144" width="4.21875" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16148" max="16148" width="22.21875" style="1" customWidth="1"/>
+    <col min="16149" max="16149" width="0.77734375" style="1" customWidth="1"/>
+    <col min="16150" max="16150" width="4.21875" style="1" customWidth="1"/>
+    <col min="16151" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="78" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
     </row>
     <row r="2" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2700,47 +2699,47 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="66" t="s">
+      <c r="Q3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="66" t="s">
+      <c r="AB3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-    </row>
-    <row r="4" spans="1:32" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+    </row>
+    <row r="4" spans="1:32" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2774,7 +2773,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2799,26 +2798,26 @@
       <c r="N5" s="5"/>
       <c r="O5" s="9"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="77"/>
-    </row>
-    <row r="6" spans="1:32" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="41"/>
+    </row>
+    <row r="6" spans="1:32" ht="4.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -2852,7 +2851,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2875,28 +2874,28 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="79" t="s">
+      <c r="Q7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="66" t="s">
+      <c r="AB7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-    </row>
-    <row r="8" spans="1:32" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+    </row>
+    <row r="8" spans="1:32" ht="4.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2930,7 +2929,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2953,26 +2952,26 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="77"/>
-    </row>
-    <row r="10" spans="1:32" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="41"/>
+    </row>
+    <row r="10" spans="1:32" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3007,42 +3006,42 @@
       <c r="AF10" s="5"/>
     </row>
     <row r="11" spans="1:32" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="69"/>
-    </row>
-    <row r="12" spans="1:32" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+    </row>
+    <row r="12" spans="1:32" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="16"/>
       <c r="C12" s="11"/>
@@ -3076,41 +3075,41 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+    <row r="13" spans="1:32" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="73"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
     </row>
     <row r="14" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -3137,63 +3136,63 @@
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="40" t="s">
+      <c r="Q15" s="61"/>
+      <c r="R15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="42"/>
-    </row>
-    <row r="16" spans="1:32" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="67"/>
+    </row>
+    <row r="16" spans="1:32" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="26" t="s">
         <v>28</v>
       </c>
@@ -3246,24 +3245,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="25"/>
@@ -3282,24 +3281,24 @@
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
     </row>
-    <row r="18" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="25"/>
@@ -3318,24 +3317,24 @@
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
     </row>
-    <row r="19" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="25"/>
@@ -3354,24 +3353,24 @@
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
     </row>
-    <row r="20" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="25"/>
@@ -3390,24 +3389,24 @@
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
     </row>
-    <row r="21" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="25"/>
@@ -3426,24 +3425,24 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
     </row>
-    <row r="22" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="25"/>
@@ -3462,24 +3461,24 @@
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
     </row>
-    <row r="23" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="25"/>
@@ -3498,24 +3497,24 @@
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
     </row>
-    <row r="24" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="25"/>
@@ -3534,7 +3533,7 @@
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
     </row>
-    <row r="25" spans="1:32" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="62" t="s">
@@ -3554,108 +3553,108 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
     </row>
-    <row r="26" spans="1:32" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="65"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="47"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
-      <c r="T26" s="64" t="s">
+      <c r="T26" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="51"/>
-    </row>
-    <row r="27" spans="1:32" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="49"/>
+    </row>
+    <row r="27" spans="1:32" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="20"/>
       <c r="C27" s="29"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="T27" s="52" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="T27" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="51"/>
-    </row>
-    <row r="28" spans="1:32" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="49"/>
+    </row>
+    <row r="28" spans="1:32" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="20"/>
       <c r="C28" s="29"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
       <c r="X28" s="20"/>
-      <c r="Y28" s="52" t="s">
+      <c r="Y28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="51"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="49"/>
     </row>
     <row r="29" spans="1:32" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -3669,76 +3668,76 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:32" ht="75.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-      <c r="M30" s="59" t="s">
+    <row r="30" spans="1:32" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="M30" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="Y30" s="44" t="s">
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="Y30" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="46"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="71"/>
     </row>
     <row r="31" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="49"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="74"/>
     </row>
     <row r="32" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -3752,12 +3751,12 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="4"/>
@@ -3765,11 +3764,11 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="AD33" s="43" t="s">
+      <c r="AD33" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -3929,35 +3928,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="T27:AD27"/>
-    <mergeCell ref="T26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="L1:AF1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="K11:AF11"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="O13:AF13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D26:O26"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="B20:O20"/>
@@ -3974,6 +3944,35 @@
     <mergeCell ref="E27:O27"/>
     <mergeCell ref="E28:O28"/>
     <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="K11:AF11"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="O13:AF13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="L1:AF1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="T27:AD27"/>
+    <mergeCell ref="T26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.12" top="0.25" bottom="0.25" header="0.26" footer="0.25"/>
@@ -3994,9 +3993,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>298450</xdr:colOff>
+                <xdr:colOff>297180</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>666750</xdr:rowOff>
+                <xdr:rowOff>670560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4022,1144 +4021,1144 @@
       <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" style="1" customWidth="1"/>
-    <col min="4" max="232" width="10.90625" style="1"/>
-    <col min="233" max="233" width="5.1796875" style="1" customWidth="1"/>
-    <col min="234" max="234" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" style="1" customWidth="1"/>
+    <col min="4" max="232" width="10.88671875" style="1"/>
+    <col min="233" max="233" width="5.21875" style="1" customWidth="1"/>
+    <col min="234" max="234" width="4.5546875" style="1" customWidth="1"/>
     <col min="235" max="235" width="1" style="1" customWidth="1"/>
-    <col min="236" max="236" width="4.26953125" style="1" customWidth="1"/>
-    <col min="237" max="237" width="8.453125" style="1" customWidth="1"/>
+    <col min="236" max="236" width="4.21875" style="1" customWidth="1"/>
+    <col min="237" max="237" width="8.44140625" style="1" customWidth="1"/>
     <col min="238" max="238" width="1" style="1" customWidth="1"/>
-    <col min="239" max="239" width="4.26953125" style="1" customWidth="1"/>
-    <col min="240" max="240" width="7.453125" style="1" customWidth="1"/>
+    <col min="239" max="239" width="4.21875" style="1" customWidth="1"/>
+    <col min="240" max="240" width="7.44140625" style="1" customWidth="1"/>
     <col min="241" max="241" width="1" style="1" customWidth="1"/>
-    <col min="242" max="243" width="4.26953125" style="1" customWidth="1"/>
-    <col min="244" max="244" width="7.7265625" style="1" customWidth="1"/>
-    <col min="245" max="245" width="10.453125" style="1" customWidth="1"/>
-    <col min="246" max="246" width="12.7265625" style="1" customWidth="1"/>
-    <col min="247" max="247" width="22.26953125" style="1" customWidth="1"/>
-    <col min="248" max="248" width="0.7265625" style="1" customWidth="1"/>
-    <col min="249" max="249" width="4.1796875" style="1" customWidth="1"/>
-    <col min="250" max="488" width="10.90625" style="1"/>
-    <col min="489" max="489" width="5.1796875" style="1" customWidth="1"/>
-    <col min="490" max="490" width="4.54296875" style="1" customWidth="1"/>
+    <col min="242" max="243" width="4.21875" style="1" customWidth="1"/>
+    <col min="244" max="244" width="7.77734375" style="1" customWidth="1"/>
+    <col min="245" max="245" width="10.44140625" style="1" customWidth="1"/>
+    <col min="246" max="246" width="12.77734375" style="1" customWidth="1"/>
+    <col min="247" max="247" width="22.21875" style="1" customWidth="1"/>
+    <col min="248" max="248" width="0.77734375" style="1" customWidth="1"/>
+    <col min="249" max="249" width="4.21875" style="1" customWidth="1"/>
+    <col min="250" max="488" width="10.88671875" style="1"/>
+    <col min="489" max="489" width="5.21875" style="1" customWidth="1"/>
+    <col min="490" max="490" width="4.5546875" style="1" customWidth="1"/>
     <col min="491" max="491" width="1" style="1" customWidth="1"/>
-    <col min="492" max="492" width="4.26953125" style="1" customWidth="1"/>
-    <col min="493" max="493" width="8.453125" style="1" customWidth="1"/>
+    <col min="492" max="492" width="4.21875" style="1" customWidth="1"/>
+    <col min="493" max="493" width="8.44140625" style="1" customWidth="1"/>
     <col min="494" max="494" width="1" style="1" customWidth="1"/>
-    <col min="495" max="495" width="4.26953125" style="1" customWidth="1"/>
-    <col min="496" max="496" width="7.453125" style="1" customWidth="1"/>
+    <col min="495" max="495" width="4.21875" style="1" customWidth="1"/>
+    <col min="496" max="496" width="7.44140625" style="1" customWidth="1"/>
     <col min="497" max="497" width="1" style="1" customWidth="1"/>
-    <col min="498" max="499" width="4.26953125" style="1" customWidth="1"/>
-    <col min="500" max="500" width="7.7265625" style="1" customWidth="1"/>
-    <col min="501" max="501" width="10.453125" style="1" customWidth="1"/>
-    <col min="502" max="502" width="12.7265625" style="1" customWidth="1"/>
-    <col min="503" max="503" width="22.26953125" style="1" customWidth="1"/>
-    <col min="504" max="504" width="0.7265625" style="1" customWidth="1"/>
-    <col min="505" max="505" width="4.1796875" style="1" customWidth="1"/>
-    <col min="506" max="744" width="10.90625" style="1"/>
-    <col min="745" max="745" width="5.1796875" style="1" customWidth="1"/>
-    <col min="746" max="746" width="4.54296875" style="1" customWidth="1"/>
+    <col min="498" max="499" width="4.21875" style="1" customWidth="1"/>
+    <col min="500" max="500" width="7.77734375" style="1" customWidth="1"/>
+    <col min="501" max="501" width="10.44140625" style="1" customWidth="1"/>
+    <col min="502" max="502" width="12.77734375" style="1" customWidth="1"/>
+    <col min="503" max="503" width="22.21875" style="1" customWidth="1"/>
+    <col min="504" max="504" width="0.77734375" style="1" customWidth="1"/>
+    <col min="505" max="505" width="4.21875" style="1" customWidth="1"/>
+    <col min="506" max="744" width="10.88671875" style="1"/>
+    <col min="745" max="745" width="5.21875" style="1" customWidth="1"/>
+    <col min="746" max="746" width="4.5546875" style="1" customWidth="1"/>
     <col min="747" max="747" width="1" style="1" customWidth="1"/>
-    <col min="748" max="748" width="4.26953125" style="1" customWidth="1"/>
-    <col min="749" max="749" width="8.453125" style="1" customWidth="1"/>
+    <col min="748" max="748" width="4.21875" style="1" customWidth="1"/>
+    <col min="749" max="749" width="8.44140625" style="1" customWidth="1"/>
     <col min="750" max="750" width="1" style="1" customWidth="1"/>
-    <col min="751" max="751" width="4.26953125" style="1" customWidth="1"/>
-    <col min="752" max="752" width="7.453125" style="1" customWidth="1"/>
+    <col min="751" max="751" width="4.21875" style="1" customWidth="1"/>
+    <col min="752" max="752" width="7.44140625" style="1" customWidth="1"/>
     <col min="753" max="753" width="1" style="1" customWidth="1"/>
-    <col min="754" max="755" width="4.26953125" style="1" customWidth="1"/>
-    <col min="756" max="756" width="7.7265625" style="1" customWidth="1"/>
-    <col min="757" max="757" width="10.453125" style="1" customWidth="1"/>
-    <col min="758" max="758" width="12.7265625" style="1" customWidth="1"/>
-    <col min="759" max="759" width="22.26953125" style="1" customWidth="1"/>
-    <col min="760" max="760" width="0.7265625" style="1" customWidth="1"/>
-    <col min="761" max="761" width="4.1796875" style="1" customWidth="1"/>
-    <col min="762" max="1000" width="10.90625" style="1"/>
-    <col min="1001" max="1001" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1002" max="1002" width="4.54296875" style="1" customWidth="1"/>
+    <col min="754" max="755" width="4.21875" style="1" customWidth="1"/>
+    <col min="756" max="756" width="7.77734375" style="1" customWidth="1"/>
+    <col min="757" max="757" width="10.44140625" style="1" customWidth="1"/>
+    <col min="758" max="758" width="12.77734375" style="1" customWidth="1"/>
+    <col min="759" max="759" width="22.21875" style="1" customWidth="1"/>
+    <col min="760" max="760" width="0.77734375" style="1" customWidth="1"/>
+    <col min="761" max="761" width="4.21875" style="1" customWidth="1"/>
+    <col min="762" max="1000" width="10.88671875" style="1"/>
+    <col min="1001" max="1001" width="5.21875" style="1" customWidth="1"/>
+    <col min="1002" max="1002" width="4.5546875" style="1" customWidth="1"/>
     <col min="1003" max="1003" width="1" style="1" customWidth="1"/>
-    <col min="1004" max="1004" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1005" max="1005" width="8.453125" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="4.21875" style="1" customWidth="1"/>
+    <col min="1005" max="1005" width="8.44140625" style="1" customWidth="1"/>
     <col min="1006" max="1006" width="1" style="1" customWidth="1"/>
-    <col min="1007" max="1007" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1008" max="1008" width="7.453125" style="1" customWidth="1"/>
+    <col min="1007" max="1007" width="4.21875" style="1" customWidth="1"/>
+    <col min="1008" max="1008" width="7.44140625" style="1" customWidth="1"/>
     <col min="1009" max="1009" width="1" style="1" customWidth="1"/>
-    <col min="1010" max="1011" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1012" max="1012" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1013" max="1013" width="10.453125" style="1" customWidth="1"/>
-    <col min="1014" max="1014" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1015" max="1015" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1016" max="1016" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1017" max="1017" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1018" max="1256" width="10.90625" style="1"/>
-    <col min="1257" max="1257" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1258" max="1258" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1010" max="1011" width="4.21875" style="1" customWidth="1"/>
+    <col min="1012" max="1012" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1013" max="1013" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1014" max="1014" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1015" max="1015" width="22.21875" style="1" customWidth="1"/>
+    <col min="1016" max="1016" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1017" max="1017" width="4.21875" style="1" customWidth="1"/>
+    <col min="1018" max="1256" width="10.88671875" style="1"/>
+    <col min="1257" max="1257" width="5.21875" style="1" customWidth="1"/>
+    <col min="1258" max="1258" width="4.5546875" style="1" customWidth="1"/>
     <col min="1259" max="1259" width="1" style="1" customWidth="1"/>
-    <col min="1260" max="1260" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1261" max="1261" width="8.453125" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="4.21875" style="1" customWidth="1"/>
+    <col min="1261" max="1261" width="8.44140625" style="1" customWidth="1"/>
     <col min="1262" max="1262" width="1" style="1" customWidth="1"/>
-    <col min="1263" max="1263" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1264" max="1264" width="7.453125" style="1" customWidth="1"/>
+    <col min="1263" max="1263" width="4.21875" style="1" customWidth="1"/>
+    <col min="1264" max="1264" width="7.44140625" style="1" customWidth="1"/>
     <col min="1265" max="1265" width="1" style="1" customWidth="1"/>
-    <col min="1266" max="1267" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1268" max="1268" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1269" max="1269" width="10.453125" style="1" customWidth="1"/>
-    <col min="1270" max="1270" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1271" max="1271" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1272" max="1272" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1273" max="1273" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1274" max="1512" width="10.90625" style="1"/>
-    <col min="1513" max="1513" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1514" max="1514" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1266" max="1267" width="4.21875" style="1" customWidth="1"/>
+    <col min="1268" max="1268" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1269" max="1269" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1270" max="1270" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1271" max="1271" width="22.21875" style="1" customWidth="1"/>
+    <col min="1272" max="1272" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1273" max="1273" width="4.21875" style="1" customWidth="1"/>
+    <col min="1274" max="1512" width="10.88671875" style="1"/>
+    <col min="1513" max="1513" width="5.21875" style="1" customWidth="1"/>
+    <col min="1514" max="1514" width="4.5546875" style="1" customWidth="1"/>
     <col min="1515" max="1515" width="1" style="1" customWidth="1"/>
-    <col min="1516" max="1516" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1517" max="1517" width="8.453125" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="4.21875" style="1" customWidth="1"/>
+    <col min="1517" max="1517" width="8.44140625" style="1" customWidth="1"/>
     <col min="1518" max="1518" width="1" style="1" customWidth="1"/>
-    <col min="1519" max="1519" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1520" max="1520" width="7.453125" style="1" customWidth="1"/>
+    <col min="1519" max="1519" width="4.21875" style="1" customWidth="1"/>
+    <col min="1520" max="1520" width="7.44140625" style="1" customWidth="1"/>
     <col min="1521" max="1521" width="1" style="1" customWidth="1"/>
-    <col min="1522" max="1523" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1524" max="1524" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1525" max="1525" width="10.453125" style="1" customWidth="1"/>
-    <col min="1526" max="1526" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1527" max="1527" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1528" max="1528" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1529" max="1529" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1530" max="1768" width="10.90625" style="1"/>
-    <col min="1769" max="1769" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1770" max="1770" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1522" max="1523" width="4.21875" style="1" customWidth="1"/>
+    <col min="1524" max="1524" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1525" max="1525" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1526" max="1526" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1527" max="1527" width="22.21875" style="1" customWidth="1"/>
+    <col min="1528" max="1528" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1529" max="1529" width="4.21875" style="1" customWidth="1"/>
+    <col min="1530" max="1768" width="10.88671875" style="1"/>
+    <col min="1769" max="1769" width="5.21875" style="1" customWidth="1"/>
+    <col min="1770" max="1770" width="4.5546875" style="1" customWidth="1"/>
     <col min="1771" max="1771" width="1" style="1" customWidth="1"/>
-    <col min="1772" max="1772" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1773" max="1773" width="8.453125" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="4.21875" style="1" customWidth="1"/>
+    <col min="1773" max="1773" width="8.44140625" style="1" customWidth="1"/>
     <col min="1774" max="1774" width="1" style="1" customWidth="1"/>
-    <col min="1775" max="1775" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1776" max="1776" width="7.453125" style="1" customWidth="1"/>
+    <col min="1775" max="1775" width="4.21875" style="1" customWidth="1"/>
+    <col min="1776" max="1776" width="7.44140625" style="1" customWidth="1"/>
     <col min="1777" max="1777" width="1" style="1" customWidth="1"/>
-    <col min="1778" max="1779" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1780" max="1780" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1781" max="1781" width="10.453125" style="1" customWidth="1"/>
-    <col min="1782" max="1782" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1783" max="1783" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1784" max="1784" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1785" max="1785" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1786" max="2024" width="10.90625" style="1"/>
-    <col min="2025" max="2025" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2026" max="2026" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1778" max="1779" width="4.21875" style="1" customWidth="1"/>
+    <col min="1780" max="1780" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1781" max="1781" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1782" max="1782" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1783" max="1783" width="22.21875" style="1" customWidth="1"/>
+    <col min="1784" max="1784" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1785" max="1785" width="4.21875" style="1" customWidth="1"/>
+    <col min="1786" max="2024" width="10.88671875" style="1"/>
+    <col min="2025" max="2025" width="5.21875" style="1" customWidth="1"/>
+    <col min="2026" max="2026" width="4.5546875" style="1" customWidth="1"/>
     <col min="2027" max="2027" width="1" style="1" customWidth="1"/>
-    <col min="2028" max="2028" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2029" max="2029" width="8.453125" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="4.21875" style="1" customWidth="1"/>
+    <col min="2029" max="2029" width="8.44140625" style="1" customWidth="1"/>
     <col min="2030" max="2030" width="1" style="1" customWidth="1"/>
-    <col min="2031" max="2031" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2032" max="2032" width="7.453125" style="1" customWidth="1"/>
+    <col min="2031" max="2031" width="4.21875" style="1" customWidth="1"/>
+    <col min="2032" max="2032" width="7.44140625" style="1" customWidth="1"/>
     <col min="2033" max="2033" width="1" style="1" customWidth="1"/>
-    <col min="2034" max="2035" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2036" max="2036" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2037" max="2037" width="10.453125" style="1" customWidth="1"/>
-    <col min="2038" max="2038" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2039" max="2039" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2040" max="2040" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2041" max="2041" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2042" max="2280" width="10.90625" style="1"/>
-    <col min="2281" max="2281" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2282" max="2282" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2034" max="2035" width="4.21875" style="1" customWidth="1"/>
+    <col min="2036" max="2036" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2037" max="2037" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2038" max="2038" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2039" max="2039" width="22.21875" style="1" customWidth="1"/>
+    <col min="2040" max="2040" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2041" max="2041" width="4.21875" style="1" customWidth="1"/>
+    <col min="2042" max="2280" width="10.88671875" style="1"/>
+    <col min="2281" max="2281" width="5.21875" style="1" customWidth="1"/>
+    <col min="2282" max="2282" width="4.5546875" style="1" customWidth="1"/>
     <col min="2283" max="2283" width="1" style="1" customWidth="1"/>
-    <col min="2284" max="2284" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2285" max="2285" width="8.453125" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="4.21875" style="1" customWidth="1"/>
+    <col min="2285" max="2285" width="8.44140625" style="1" customWidth="1"/>
     <col min="2286" max="2286" width="1" style="1" customWidth="1"/>
-    <col min="2287" max="2287" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2288" max="2288" width="7.453125" style="1" customWidth="1"/>
+    <col min="2287" max="2287" width="4.21875" style="1" customWidth="1"/>
+    <col min="2288" max="2288" width="7.44140625" style="1" customWidth="1"/>
     <col min="2289" max="2289" width="1" style="1" customWidth="1"/>
-    <col min="2290" max="2291" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2292" max="2292" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2293" max="2293" width="10.453125" style="1" customWidth="1"/>
-    <col min="2294" max="2294" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2295" max="2295" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2296" max="2296" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2297" max="2297" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2298" max="2536" width="10.90625" style="1"/>
-    <col min="2537" max="2537" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2538" max="2538" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2290" max="2291" width="4.21875" style="1" customWidth="1"/>
+    <col min="2292" max="2292" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2293" max="2293" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2294" max="2294" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2295" max="2295" width="22.21875" style="1" customWidth="1"/>
+    <col min="2296" max="2296" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2297" max="2297" width="4.21875" style="1" customWidth="1"/>
+    <col min="2298" max="2536" width="10.88671875" style="1"/>
+    <col min="2537" max="2537" width="5.21875" style="1" customWidth="1"/>
+    <col min="2538" max="2538" width="4.5546875" style="1" customWidth="1"/>
     <col min="2539" max="2539" width="1" style="1" customWidth="1"/>
-    <col min="2540" max="2540" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2541" max="2541" width="8.453125" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="4.21875" style="1" customWidth="1"/>
+    <col min="2541" max="2541" width="8.44140625" style="1" customWidth="1"/>
     <col min="2542" max="2542" width="1" style="1" customWidth="1"/>
-    <col min="2543" max="2543" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2544" max="2544" width="7.453125" style="1" customWidth="1"/>
+    <col min="2543" max="2543" width="4.21875" style="1" customWidth="1"/>
+    <col min="2544" max="2544" width="7.44140625" style="1" customWidth="1"/>
     <col min="2545" max="2545" width="1" style="1" customWidth="1"/>
-    <col min="2546" max="2547" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2548" max="2548" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2549" max="2549" width="10.453125" style="1" customWidth="1"/>
-    <col min="2550" max="2550" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2551" max="2551" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2552" max="2552" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2553" max="2553" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2554" max="2792" width="10.90625" style="1"/>
-    <col min="2793" max="2793" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2794" max="2794" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2546" max="2547" width="4.21875" style="1" customWidth="1"/>
+    <col min="2548" max="2548" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2549" max="2549" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2550" max="2550" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2551" max="2551" width="22.21875" style="1" customWidth="1"/>
+    <col min="2552" max="2552" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2553" max="2553" width="4.21875" style="1" customWidth="1"/>
+    <col min="2554" max="2792" width="10.88671875" style="1"/>
+    <col min="2793" max="2793" width="5.21875" style="1" customWidth="1"/>
+    <col min="2794" max="2794" width="4.5546875" style="1" customWidth="1"/>
     <col min="2795" max="2795" width="1" style="1" customWidth="1"/>
-    <col min="2796" max="2796" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2797" max="2797" width="8.453125" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="4.21875" style="1" customWidth="1"/>
+    <col min="2797" max="2797" width="8.44140625" style="1" customWidth="1"/>
     <col min="2798" max="2798" width="1" style="1" customWidth="1"/>
-    <col min="2799" max="2799" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2800" max="2800" width="7.453125" style="1" customWidth="1"/>
+    <col min="2799" max="2799" width="4.21875" style="1" customWidth="1"/>
+    <col min="2800" max="2800" width="7.44140625" style="1" customWidth="1"/>
     <col min="2801" max="2801" width="1" style="1" customWidth="1"/>
-    <col min="2802" max="2803" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2804" max="2804" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2805" max="2805" width="10.453125" style="1" customWidth="1"/>
-    <col min="2806" max="2806" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2807" max="2807" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2808" max="2808" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2809" max="2809" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2810" max="3048" width="10.90625" style="1"/>
-    <col min="3049" max="3049" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3050" max="3050" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2802" max="2803" width="4.21875" style="1" customWidth="1"/>
+    <col min="2804" max="2804" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2805" max="2805" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2806" max="2806" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2807" max="2807" width="22.21875" style="1" customWidth="1"/>
+    <col min="2808" max="2808" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2809" max="2809" width="4.21875" style="1" customWidth="1"/>
+    <col min="2810" max="3048" width="10.88671875" style="1"/>
+    <col min="3049" max="3049" width="5.21875" style="1" customWidth="1"/>
+    <col min="3050" max="3050" width="4.5546875" style="1" customWidth="1"/>
     <col min="3051" max="3051" width="1" style="1" customWidth="1"/>
-    <col min="3052" max="3052" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3053" max="3053" width="8.453125" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="4.21875" style="1" customWidth="1"/>
+    <col min="3053" max="3053" width="8.44140625" style="1" customWidth="1"/>
     <col min="3054" max="3054" width="1" style="1" customWidth="1"/>
-    <col min="3055" max="3055" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3056" max="3056" width="7.453125" style="1" customWidth="1"/>
+    <col min="3055" max="3055" width="4.21875" style="1" customWidth="1"/>
+    <col min="3056" max="3056" width="7.44140625" style="1" customWidth="1"/>
     <col min="3057" max="3057" width="1" style="1" customWidth="1"/>
-    <col min="3058" max="3059" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3060" max="3060" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3061" max="3061" width="10.453125" style="1" customWidth="1"/>
-    <col min="3062" max="3062" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3063" max="3063" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3064" max="3064" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3065" max="3065" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3066" max="3304" width="10.90625" style="1"/>
-    <col min="3305" max="3305" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3306" max="3306" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3058" max="3059" width="4.21875" style="1" customWidth="1"/>
+    <col min="3060" max="3060" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3061" max="3061" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3062" max="3062" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3063" max="3063" width="22.21875" style="1" customWidth="1"/>
+    <col min="3064" max="3064" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3065" max="3065" width="4.21875" style="1" customWidth="1"/>
+    <col min="3066" max="3304" width="10.88671875" style="1"/>
+    <col min="3305" max="3305" width="5.21875" style="1" customWidth="1"/>
+    <col min="3306" max="3306" width="4.5546875" style="1" customWidth="1"/>
     <col min="3307" max="3307" width="1" style="1" customWidth="1"/>
-    <col min="3308" max="3308" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3309" max="3309" width="8.453125" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="4.21875" style="1" customWidth="1"/>
+    <col min="3309" max="3309" width="8.44140625" style="1" customWidth="1"/>
     <col min="3310" max="3310" width="1" style="1" customWidth="1"/>
-    <col min="3311" max="3311" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3312" max="3312" width="7.453125" style="1" customWidth="1"/>
+    <col min="3311" max="3311" width="4.21875" style="1" customWidth="1"/>
+    <col min="3312" max="3312" width="7.44140625" style="1" customWidth="1"/>
     <col min="3313" max="3313" width="1" style="1" customWidth="1"/>
-    <col min="3314" max="3315" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3316" max="3316" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3317" max="3317" width="10.453125" style="1" customWidth="1"/>
-    <col min="3318" max="3318" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3319" max="3319" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3320" max="3320" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3321" max="3321" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3322" max="3560" width="10.90625" style="1"/>
-    <col min="3561" max="3561" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3562" max="3562" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3314" max="3315" width="4.21875" style="1" customWidth="1"/>
+    <col min="3316" max="3316" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3317" max="3317" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3318" max="3318" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3319" max="3319" width="22.21875" style="1" customWidth="1"/>
+    <col min="3320" max="3320" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3321" max="3321" width="4.21875" style="1" customWidth="1"/>
+    <col min="3322" max="3560" width="10.88671875" style="1"/>
+    <col min="3561" max="3561" width="5.21875" style="1" customWidth="1"/>
+    <col min="3562" max="3562" width="4.5546875" style="1" customWidth="1"/>
     <col min="3563" max="3563" width="1" style="1" customWidth="1"/>
-    <col min="3564" max="3564" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3565" max="3565" width="8.453125" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="4.21875" style="1" customWidth="1"/>
+    <col min="3565" max="3565" width="8.44140625" style="1" customWidth="1"/>
     <col min="3566" max="3566" width="1" style="1" customWidth="1"/>
-    <col min="3567" max="3567" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3568" max="3568" width="7.453125" style="1" customWidth="1"/>
+    <col min="3567" max="3567" width="4.21875" style="1" customWidth="1"/>
+    <col min="3568" max="3568" width="7.44140625" style="1" customWidth="1"/>
     <col min="3569" max="3569" width="1" style="1" customWidth="1"/>
-    <col min="3570" max="3571" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3572" max="3572" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3573" max="3573" width="10.453125" style="1" customWidth="1"/>
-    <col min="3574" max="3574" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3575" max="3575" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3576" max="3576" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3577" max="3577" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3578" max="3816" width="10.90625" style="1"/>
-    <col min="3817" max="3817" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3818" max="3818" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3570" max="3571" width="4.21875" style="1" customWidth="1"/>
+    <col min="3572" max="3572" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3573" max="3573" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3574" max="3574" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3575" max="3575" width="22.21875" style="1" customWidth="1"/>
+    <col min="3576" max="3576" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3577" max="3577" width="4.21875" style="1" customWidth="1"/>
+    <col min="3578" max="3816" width="10.88671875" style="1"/>
+    <col min="3817" max="3817" width="5.21875" style="1" customWidth="1"/>
+    <col min="3818" max="3818" width="4.5546875" style="1" customWidth="1"/>
     <col min="3819" max="3819" width="1" style="1" customWidth="1"/>
-    <col min="3820" max="3820" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3821" max="3821" width="8.453125" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="4.21875" style="1" customWidth="1"/>
+    <col min="3821" max="3821" width="8.44140625" style="1" customWidth="1"/>
     <col min="3822" max="3822" width="1" style="1" customWidth="1"/>
-    <col min="3823" max="3823" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3824" max="3824" width="7.453125" style="1" customWidth="1"/>
+    <col min="3823" max="3823" width="4.21875" style="1" customWidth="1"/>
+    <col min="3824" max="3824" width="7.44140625" style="1" customWidth="1"/>
     <col min="3825" max="3825" width="1" style="1" customWidth="1"/>
-    <col min="3826" max="3827" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3828" max="3828" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3829" max="3829" width="10.453125" style="1" customWidth="1"/>
-    <col min="3830" max="3830" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3831" max="3831" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3832" max="3832" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3833" max="3833" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3834" max="4072" width="10.90625" style="1"/>
-    <col min="4073" max="4073" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4074" max="4074" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3826" max="3827" width="4.21875" style="1" customWidth="1"/>
+    <col min="3828" max="3828" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3829" max="3829" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3830" max="3830" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3831" max="3831" width="22.21875" style="1" customWidth="1"/>
+    <col min="3832" max="3832" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3833" max="3833" width="4.21875" style="1" customWidth="1"/>
+    <col min="3834" max="4072" width="10.88671875" style="1"/>
+    <col min="4073" max="4073" width="5.21875" style="1" customWidth="1"/>
+    <col min="4074" max="4074" width="4.5546875" style="1" customWidth="1"/>
     <col min="4075" max="4075" width="1" style="1" customWidth="1"/>
-    <col min="4076" max="4076" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4077" max="4077" width="8.453125" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="4.21875" style="1" customWidth="1"/>
+    <col min="4077" max="4077" width="8.44140625" style="1" customWidth="1"/>
     <col min="4078" max="4078" width="1" style="1" customWidth="1"/>
-    <col min="4079" max="4079" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4080" max="4080" width="7.453125" style="1" customWidth="1"/>
+    <col min="4079" max="4079" width="4.21875" style="1" customWidth="1"/>
+    <col min="4080" max="4080" width="7.44140625" style="1" customWidth="1"/>
     <col min="4081" max="4081" width="1" style="1" customWidth="1"/>
-    <col min="4082" max="4083" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4084" max="4084" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4085" max="4085" width="10.453125" style="1" customWidth="1"/>
-    <col min="4086" max="4086" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4087" max="4087" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4088" max="4088" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4089" max="4089" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4090" max="4328" width="10.90625" style="1"/>
-    <col min="4329" max="4329" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4330" max="4330" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4082" max="4083" width="4.21875" style="1" customWidth="1"/>
+    <col min="4084" max="4084" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4085" max="4085" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4086" max="4086" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4087" max="4087" width="22.21875" style="1" customWidth="1"/>
+    <col min="4088" max="4088" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4089" max="4089" width="4.21875" style="1" customWidth="1"/>
+    <col min="4090" max="4328" width="10.88671875" style="1"/>
+    <col min="4329" max="4329" width="5.21875" style="1" customWidth="1"/>
+    <col min="4330" max="4330" width="4.5546875" style="1" customWidth="1"/>
     <col min="4331" max="4331" width="1" style="1" customWidth="1"/>
-    <col min="4332" max="4332" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4333" max="4333" width="8.453125" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="4.21875" style="1" customWidth="1"/>
+    <col min="4333" max="4333" width="8.44140625" style="1" customWidth="1"/>
     <col min="4334" max="4334" width="1" style="1" customWidth="1"/>
-    <col min="4335" max="4335" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4336" max="4336" width="7.453125" style="1" customWidth="1"/>
+    <col min="4335" max="4335" width="4.21875" style="1" customWidth="1"/>
+    <col min="4336" max="4336" width="7.44140625" style="1" customWidth="1"/>
     <col min="4337" max="4337" width="1" style="1" customWidth="1"/>
-    <col min="4338" max="4339" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4340" max="4340" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4341" max="4341" width="10.453125" style="1" customWidth="1"/>
-    <col min="4342" max="4342" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4343" max="4343" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4344" max="4344" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4345" max="4345" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4346" max="4584" width="10.90625" style="1"/>
-    <col min="4585" max="4585" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4586" max="4586" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4338" max="4339" width="4.21875" style="1" customWidth="1"/>
+    <col min="4340" max="4340" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4341" max="4341" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4342" max="4342" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4343" max="4343" width="22.21875" style="1" customWidth="1"/>
+    <col min="4344" max="4344" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4345" max="4345" width="4.21875" style="1" customWidth="1"/>
+    <col min="4346" max="4584" width="10.88671875" style="1"/>
+    <col min="4585" max="4585" width="5.21875" style="1" customWidth="1"/>
+    <col min="4586" max="4586" width="4.5546875" style="1" customWidth="1"/>
     <col min="4587" max="4587" width="1" style="1" customWidth="1"/>
-    <col min="4588" max="4588" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4589" max="4589" width="8.453125" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="4.21875" style="1" customWidth="1"/>
+    <col min="4589" max="4589" width="8.44140625" style="1" customWidth="1"/>
     <col min="4590" max="4590" width="1" style="1" customWidth="1"/>
-    <col min="4591" max="4591" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4592" max="4592" width="7.453125" style="1" customWidth="1"/>
+    <col min="4591" max="4591" width="4.21875" style="1" customWidth="1"/>
+    <col min="4592" max="4592" width="7.44140625" style="1" customWidth="1"/>
     <col min="4593" max="4593" width="1" style="1" customWidth="1"/>
-    <col min="4594" max="4595" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4596" max="4596" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4597" max="4597" width="10.453125" style="1" customWidth="1"/>
-    <col min="4598" max="4598" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4599" max="4599" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4600" max="4600" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4601" max="4601" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4602" max="4840" width="10.90625" style="1"/>
-    <col min="4841" max="4841" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4842" max="4842" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4594" max="4595" width="4.21875" style="1" customWidth="1"/>
+    <col min="4596" max="4596" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4597" max="4597" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4598" max="4598" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4599" max="4599" width="22.21875" style="1" customWidth="1"/>
+    <col min="4600" max="4600" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4601" max="4601" width="4.21875" style="1" customWidth="1"/>
+    <col min="4602" max="4840" width="10.88671875" style="1"/>
+    <col min="4841" max="4841" width="5.21875" style="1" customWidth="1"/>
+    <col min="4842" max="4842" width="4.5546875" style="1" customWidth="1"/>
     <col min="4843" max="4843" width="1" style="1" customWidth="1"/>
-    <col min="4844" max="4844" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4845" max="4845" width="8.453125" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="4.21875" style="1" customWidth="1"/>
+    <col min="4845" max="4845" width="8.44140625" style="1" customWidth="1"/>
     <col min="4846" max="4846" width="1" style="1" customWidth="1"/>
-    <col min="4847" max="4847" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4848" max="4848" width="7.453125" style="1" customWidth="1"/>
+    <col min="4847" max="4847" width="4.21875" style="1" customWidth="1"/>
+    <col min="4848" max="4848" width="7.44140625" style="1" customWidth="1"/>
     <col min="4849" max="4849" width="1" style="1" customWidth="1"/>
-    <col min="4850" max="4851" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4852" max="4852" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4853" max="4853" width="10.453125" style="1" customWidth="1"/>
-    <col min="4854" max="4854" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4855" max="4855" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4856" max="4856" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4857" max="4857" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4858" max="5096" width="10.90625" style="1"/>
-    <col min="5097" max="5097" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5098" max="5098" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4850" max="4851" width="4.21875" style="1" customWidth="1"/>
+    <col min="4852" max="4852" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4853" max="4853" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4854" max="4854" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4855" max="4855" width="22.21875" style="1" customWidth="1"/>
+    <col min="4856" max="4856" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4857" max="4857" width="4.21875" style="1" customWidth="1"/>
+    <col min="4858" max="5096" width="10.88671875" style="1"/>
+    <col min="5097" max="5097" width="5.21875" style="1" customWidth="1"/>
+    <col min="5098" max="5098" width="4.5546875" style="1" customWidth="1"/>
     <col min="5099" max="5099" width="1" style="1" customWidth="1"/>
-    <col min="5100" max="5100" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5101" max="5101" width="8.453125" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="4.21875" style="1" customWidth="1"/>
+    <col min="5101" max="5101" width="8.44140625" style="1" customWidth="1"/>
     <col min="5102" max="5102" width="1" style="1" customWidth="1"/>
-    <col min="5103" max="5103" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5104" max="5104" width="7.453125" style="1" customWidth="1"/>
+    <col min="5103" max="5103" width="4.21875" style="1" customWidth="1"/>
+    <col min="5104" max="5104" width="7.44140625" style="1" customWidth="1"/>
     <col min="5105" max="5105" width="1" style="1" customWidth="1"/>
-    <col min="5106" max="5107" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5108" max="5108" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5109" max="5109" width="10.453125" style="1" customWidth="1"/>
-    <col min="5110" max="5110" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5111" max="5111" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5112" max="5112" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5113" max="5113" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5114" max="5352" width="10.90625" style="1"/>
-    <col min="5353" max="5353" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5354" max="5354" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5106" max="5107" width="4.21875" style="1" customWidth="1"/>
+    <col min="5108" max="5108" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5109" max="5109" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5110" max="5110" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5111" max="5111" width="22.21875" style="1" customWidth="1"/>
+    <col min="5112" max="5112" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5113" max="5113" width="4.21875" style="1" customWidth="1"/>
+    <col min="5114" max="5352" width="10.88671875" style="1"/>
+    <col min="5353" max="5353" width="5.21875" style="1" customWidth="1"/>
+    <col min="5354" max="5354" width="4.5546875" style="1" customWidth="1"/>
     <col min="5355" max="5355" width="1" style="1" customWidth="1"/>
-    <col min="5356" max="5356" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5357" max="5357" width="8.453125" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="4.21875" style="1" customWidth="1"/>
+    <col min="5357" max="5357" width="8.44140625" style="1" customWidth="1"/>
     <col min="5358" max="5358" width="1" style="1" customWidth="1"/>
-    <col min="5359" max="5359" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5360" max="5360" width="7.453125" style="1" customWidth="1"/>
+    <col min="5359" max="5359" width="4.21875" style="1" customWidth="1"/>
+    <col min="5360" max="5360" width="7.44140625" style="1" customWidth="1"/>
     <col min="5361" max="5361" width="1" style="1" customWidth="1"/>
-    <col min="5362" max="5363" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5364" max="5364" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5365" max="5365" width="10.453125" style="1" customWidth="1"/>
-    <col min="5366" max="5366" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5367" max="5367" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5368" max="5368" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5369" max="5369" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5370" max="5608" width="10.90625" style="1"/>
-    <col min="5609" max="5609" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5610" max="5610" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5362" max="5363" width="4.21875" style="1" customWidth="1"/>
+    <col min="5364" max="5364" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5365" max="5365" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5366" max="5366" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5367" max="5367" width="22.21875" style="1" customWidth="1"/>
+    <col min="5368" max="5368" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5369" max="5369" width="4.21875" style="1" customWidth="1"/>
+    <col min="5370" max="5608" width="10.88671875" style="1"/>
+    <col min="5609" max="5609" width="5.21875" style="1" customWidth="1"/>
+    <col min="5610" max="5610" width="4.5546875" style="1" customWidth="1"/>
     <col min="5611" max="5611" width="1" style="1" customWidth="1"/>
-    <col min="5612" max="5612" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5613" max="5613" width="8.453125" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="4.21875" style="1" customWidth="1"/>
+    <col min="5613" max="5613" width="8.44140625" style="1" customWidth="1"/>
     <col min="5614" max="5614" width="1" style="1" customWidth="1"/>
-    <col min="5615" max="5615" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5616" max="5616" width="7.453125" style="1" customWidth="1"/>
+    <col min="5615" max="5615" width="4.21875" style="1" customWidth="1"/>
+    <col min="5616" max="5616" width="7.44140625" style="1" customWidth="1"/>
     <col min="5617" max="5617" width="1" style="1" customWidth="1"/>
-    <col min="5618" max="5619" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5620" max="5620" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5621" max="5621" width="10.453125" style="1" customWidth="1"/>
-    <col min="5622" max="5622" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5623" max="5623" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5624" max="5624" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5625" max="5625" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5626" max="5864" width="10.90625" style="1"/>
-    <col min="5865" max="5865" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5866" max="5866" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5618" max="5619" width="4.21875" style="1" customWidth="1"/>
+    <col min="5620" max="5620" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5621" max="5621" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5622" max="5622" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5623" max="5623" width="22.21875" style="1" customWidth="1"/>
+    <col min="5624" max="5624" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5625" max="5625" width="4.21875" style="1" customWidth="1"/>
+    <col min="5626" max="5864" width="10.88671875" style="1"/>
+    <col min="5865" max="5865" width="5.21875" style="1" customWidth="1"/>
+    <col min="5866" max="5866" width="4.5546875" style="1" customWidth="1"/>
     <col min="5867" max="5867" width="1" style="1" customWidth="1"/>
-    <col min="5868" max="5868" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5869" max="5869" width="8.453125" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="4.21875" style="1" customWidth="1"/>
+    <col min="5869" max="5869" width="8.44140625" style="1" customWidth="1"/>
     <col min="5870" max="5870" width="1" style="1" customWidth="1"/>
-    <col min="5871" max="5871" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5872" max="5872" width="7.453125" style="1" customWidth="1"/>
+    <col min="5871" max="5871" width="4.21875" style="1" customWidth="1"/>
+    <col min="5872" max="5872" width="7.44140625" style="1" customWidth="1"/>
     <col min="5873" max="5873" width="1" style="1" customWidth="1"/>
-    <col min="5874" max="5875" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5876" max="5876" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5877" max="5877" width="10.453125" style="1" customWidth="1"/>
-    <col min="5878" max="5878" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5879" max="5879" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5880" max="5880" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5881" max="5881" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5882" max="6120" width="10.90625" style="1"/>
-    <col min="6121" max="6121" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6122" max="6122" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5874" max="5875" width="4.21875" style="1" customWidth="1"/>
+    <col min="5876" max="5876" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5877" max="5877" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5878" max="5878" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5879" max="5879" width="22.21875" style="1" customWidth="1"/>
+    <col min="5880" max="5880" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5881" max="5881" width="4.21875" style="1" customWidth="1"/>
+    <col min="5882" max="6120" width="10.88671875" style="1"/>
+    <col min="6121" max="6121" width="5.21875" style="1" customWidth="1"/>
+    <col min="6122" max="6122" width="4.5546875" style="1" customWidth="1"/>
     <col min="6123" max="6123" width="1" style="1" customWidth="1"/>
-    <col min="6124" max="6124" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6125" max="6125" width="8.453125" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="4.21875" style="1" customWidth="1"/>
+    <col min="6125" max="6125" width="8.44140625" style="1" customWidth="1"/>
     <col min="6126" max="6126" width="1" style="1" customWidth="1"/>
-    <col min="6127" max="6127" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6128" max="6128" width="7.453125" style="1" customWidth="1"/>
+    <col min="6127" max="6127" width="4.21875" style="1" customWidth="1"/>
+    <col min="6128" max="6128" width="7.44140625" style="1" customWidth="1"/>
     <col min="6129" max="6129" width="1" style="1" customWidth="1"/>
-    <col min="6130" max="6131" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6132" max="6132" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6133" max="6133" width="10.453125" style="1" customWidth="1"/>
-    <col min="6134" max="6134" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6135" max="6135" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6136" max="6136" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6137" max="6137" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6138" max="6376" width="10.90625" style="1"/>
-    <col min="6377" max="6377" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6378" max="6378" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6130" max="6131" width="4.21875" style="1" customWidth="1"/>
+    <col min="6132" max="6132" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6133" max="6133" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6134" max="6134" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6135" max="6135" width="22.21875" style="1" customWidth="1"/>
+    <col min="6136" max="6136" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6137" max="6137" width="4.21875" style="1" customWidth="1"/>
+    <col min="6138" max="6376" width="10.88671875" style="1"/>
+    <col min="6377" max="6377" width="5.21875" style="1" customWidth="1"/>
+    <col min="6378" max="6378" width="4.5546875" style="1" customWidth="1"/>
     <col min="6379" max="6379" width="1" style="1" customWidth="1"/>
-    <col min="6380" max="6380" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6381" max="6381" width="8.453125" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="4.21875" style="1" customWidth="1"/>
+    <col min="6381" max="6381" width="8.44140625" style="1" customWidth="1"/>
     <col min="6382" max="6382" width="1" style="1" customWidth="1"/>
-    <col min="6383" max="6383" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6384" max="6384" width="7.453125" style="1" customWidth="1"/>
+    <col min="6383" max="6383" width="4.21875" style="1" customWidth="1"/>
+    <col min="6384" max="6384" width="7.44140625" style="1" customWidth="1"/>
     <col min="6385" max="6385" width="1" style="1" customWidth="1"/>
-    <col min="6386" max="6387" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6388" max="6388" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6389" max="6389" width="10.453125" style="1" customWidth="1"/>
-    <col min="6390" max="6390" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6391" max="6391" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6392" max="6392" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6393" max="6393" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6394" max="6632" width="10.90625" style="1"/>
-    <col min="6633" max="6633" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6634" max="6634" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6386" max="6387" width="4.21875" style="1" customWidth="1"/>
+    <col min="6388" max="6388" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6389" max="6389" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6390" max="6390" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6391" max="6391" width="22.21875" style="1" customWidth="1"/>
+    <col min="6392" max="6392" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6393" max="6393" width="4.21875" style="1" customWidth="1"/>
+    <col min="6394" max="6632" width="10.88671875" style="1"/>
+    <col min="6633" max="6633" width="5.21875" style="1" customWidth="1"/>
+    <col min="6634" max="6634" width="4.5546875" style="1" customWidth="1"/>
     <col min="6635" max="6635" width="1" style="1" customWidth="1"/>
-    <col min="6636" max="6636" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6637" max="6637" width="8.453125" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="4.21875" style="1" customWidth="1"/>
+    <col min="6637" max="6637" width="8.44140625" style="1" customWidth="1"/>
     <col min="6638" max="6638" width="1" style="1" customWidth="1"/>
-    <col min="6639" max="6639" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6640" max="6640" width="7.453125" style="1" customWidth="1"/>
+    <col min="6639" max="6639" width="4.21875" style="1" customWidth="1"/>
+    <col min="6640" max="6640" width="7.44140625" style="1" customWidth="1"/>
     <col min="6641" max="6641" width="1" style="1" customWidth="1"/>
-    <col min="6642" max="6643" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6644" max="6644" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6645" max="6645" width="10.453125" style="1" customWidth="1"/>
-    <col min="6646" max="6646" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6647" max="6647" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6648" max="6648" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6649" max="6649" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6650" max="6888" width="10.90625" style="1"/>
-    <col min="6889" max="6889" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6890" max="6890" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6642" max="6643" width="4.21875" style="1" customWidth="1"/>
+    <col min="6644" max="6644" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6645" max="6645" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6646" max="6646" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6647" max="6647" width="22.21875" style="1" customWidth="1"/>
+    <col min="6648" max="6648" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6649" max="6649" width="4.21875" style="1" customWidth="1"/>
+    <col min="6650" max="6888" width="10.88671875" style="1"/>
+    <col min="6889" max="6889" width="5.21875" style="1" customWidth="1"/>
+    <col min="6890" max="6890" width="4.5546875" style="1" customWidth="1"/>
     <col min="6891" max="6891" width="1" style="1" customWidth="1"/>
-    <col min="6892" max="6892" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6893" max="6893" width="8.453125" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="4.21875" style="1" customWidth="1"/>
+    <col min="6893" max="6893" width="8.44140625" style="1" customWidth="1"/>
     <col min="6894" max="6894" width="1" style="1" customWidth="1"/>
-    <col min="6895" max="6895" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6896" max="6896" width="7.453125" style="1" customWidth="1"/>
+    <col min="6895" max="6895" width="4.21875" style="1" customWidth="1"/>
+    <col min="6896" max="6896" width="7.44140625" style="1" customWidth="1"/>
     <col min="6897" max="6897" width="1" style="1" customWidth="1"/>
-    <col min="6898" max="6899" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6900" max="6900" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6901" max="6901" width="10.453125" style="1" customWidth="1"/>
-    <col min="6902" max="6902" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6903" max="6903" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6904" max="6904" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6905" max="6905" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6906" max="7144" width="10.90625" style="1"/>
-    <col min="7145" max="7145" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7146" max="7146" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6898" max="6899" width="4.21875" style="1" customWidth="1"/>
+    <col min="6900" max="6900" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6901" max="6901" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6902" max="6902" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6903" max="6903" width="22.21875" style="1" customWidth="1"/>
+    <col min="6904" max="6904" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6905" max="6905" width="4.21875" style="1" customWidth="1"/>
+    <col min="6906" max="7144" width="10.88671875" style="1"/>
+    <col min="7145" max="7145" width="5.21875" style="1" customWidth="1"/>
+    <col min="7146" max="7146" width="4.5546875" style="1" customWidth="1"/>
     <col min="7147" max="7147" width="1" style="1" customWidth="1"/>
-    <col min="7148" max="7148" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7149" max="7149" width="8.453125" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="4.21875" style="1" customWidth="1"/>
+    <col min="7149" max="7149" width="8.44140625" style="1" customWidth="1"/>
     <col min="7150" max="7150" width="1" style="1" customWidth="1"/>
-    <col min="7151" max="7151" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7152" max="7152" width="7.453125" style="1" customWidth="1"/>
+    <col min="7151" max="7151" width="4.21875" style="1" customWidth="1"/>
+    <col min="7152" max="7152" width="7.44140625" style="1" customWidth="1"/>
     <col min="7153" max="7153" width="1" style="1" customWidth="1"/>
-    <col min="7154" max="7155" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7156" max="7156" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7157" max="7157" width="10.453125" style="1" customWidth="1"/>
-    <col min="7158" max="7158" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7159" max="7159" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7160" max="7160" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7161" max="7161" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7162" max="7400" width="10.90625" style="1"/>
-    <col min="7401" max="7401" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7402" max="7402" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7154" max="7155" width="4.21875" style="1" customWidth="1"/>
+    <col min="7156" max="7156" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7157" max="7157" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7158" max="7158" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7159" max="7159" width="22.21875" style="1" customWidth="1"/>
+    <col min="7160" max="7160" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7161" max="7161" width="4.21875" style="1" customWidth="1"/>
+    <col min="7162" max="7400" width="10.88671875" style="1"/>
+    <col min="7401" max="7401" width="5.21875" style="1" customWidth="1"/>
+    <col min="7402" max="7402" width="4.5546875" style="1" customWidth="1"/>
     <col min="7403" max="7403" width="1" style="1" customWidth="1"/>
-    <col min="7404" max="7404" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7405" max="7405" width="8.453125" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="4.21875" style="1" customWidth="1"/>
+    <col min="7405" max="7405" width="8.44140625" style="1" customWidth="1"/>
     <col min="7406" max="7406" width="1" style="1" customWidth="1"/>
-    <col min="7407" max="7407" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7408" max="7408" width="7.453125" style="1" customWidth="1"/>
+    <col min="7407" max="7407" width="4.21875" style="1" customWidth="1"/>
+    <col min="7408" max="7408" width="7.44140625" style="1" customWidth="1"/>
     <col min="7409" max="7409" width="1" style="1" customWidth="1"/>
-    <col min="7410" max="7411" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7412" max="7412" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7413" max="7413" width="10.453125" style="1" customWidth="1"/>
-    <col min="7414" max="7414" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7415" max="7415" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7416" max="7416" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7417" max="7417" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7418" max="7656" width="10.90625" style="1"/>
-    <col min="7657" max="7657" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7658" max="7658" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7410" max="7411" width="4.21875" style="1" customWidth="1"/>
+    <col min="7412" max="7412" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7413" max="7413" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7414" max="7414" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7415" max="7415" width="22.21875" style="1" customWidth="1"/>
+    <col min="7416" max="7416" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7417" max="7417" width="4.21875" style="1" customWidth="1"/>
+    <col min="7418" max="7656" width="10.88671875" style="1"/>
+    <col min="7657" max="7657" width="5.21875" style="1" customWidth="1"/>
+    <col min="7658" max="7658" width="4.5546875" style="1" customWidth="1"/>
     <col min="7659" max="7659" width="1" style="1" customWidth="1"/>
-    <col min="7660" max="7660" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7661" max="7661" width="8.453125" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="4.21875" style="1" customWidth="1"/>
+    <col min="7661" max="7661" width="8.44140625" style="1" customWidth="1"/>
     <col min="7662" max="7662" width="1" style="1" customWidth="1"/>
-    <col min="7663" max="7663" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7664" max="7664" width="7.453125" style="1" customWidth="1"/>
+    <col min="7663" max="7663" width="4.21875" style="1" customWidth="1"/>
+    <col min="7664" max="7664" width="7.44140625" style="1" customWidth="1"/>
     <col min="7665" max="7665" width="1" style="1" customWidth="1"/>
-    <col min="7666" max="7667" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7668" max="7668" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7669" max="7669" width="10.453125" style="1" customWidth="1"/>
-    <col min="7670" max="7670" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7671" max="7671" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7672" max="7672" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7673" max="7673" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7674" max="7912" width="10.90625" style="1"/>
-    <col min="7913" max="7913" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7914" max="7914" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7666" max="7667" width="4.21875" style="1" customWidth="1"/>
+    <col min="7668" max="7668" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7669" max="7669" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7670" max="7670" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7671" max="7671" width="22.21875" style="1" customWidth="1"/>
+    <col min="7672" max="7672" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7673" max="7673" width="4.21875" style="1" customWidth="1"/>
+    <col min="7674" max="7912" width="10.88671875" style="1"/>
+    <col min="7913" max="7913" width="5.21875" style="1" customWidth="1"/>
+    <col min="7914" max="7914" width="4.5546875" style="1" customWidth="1"/>
     <col min="7915" max="7915" width="1" style="1" customWidth="1"/>
-    <col min="7916" max="7916" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7917" max="7917" width="8.453125" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="4.21875" style="1" customWidth="1"/>
+    <col min="7917" max="7917" width="8.44140625" style="1" customWidth="1"/>
     <col min="7918" max="7918" width="1" style="1" customWidth="1"/>
-    <col min="7919" max="7919" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7920" max="7920" width="7.453125" style="1" customWidth="1"/>
+    <col min="7919" max="7919" width="4.21875" style="1" customWidth="1"/>
+    <col min="7920" max="7920" width="7.44140625" style="1" customWidth="1"/>
     <col min="7921" max="7921" width="1" style="1" customWidth="1"/>
-    <col min="7922" max="7923" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7924" max="7924" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7925" max="7925" width="10.453125" style="1" customWidth="1"/>
-    <col min="7926" max="7926" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7927" max="7927" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7928" max="7928" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7929" max="7929" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7930" max="8168" width="10.90625" style="1"/>
-    <col min="8169" max="8169" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8170" max="8170" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7922" max="7923" width="4.21875" style="1" customWidth="1"/>
+    <col min="7924" max="7924" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7925" max="7925" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7926" max="7926" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7927" max="7927" width="22.21875" style="1" customWidth="1"/>
+    <col min="7928" max="7928" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7929" max="7929" width="4.21875" style="1" customWidth="1"/>
+    <col min="7930" max="8168" width="10.88671875" style="1"/>
+    <col min="8169" max="8169" width="5.21875" style="1" customWidth="1"/>
+    <col min="8170" max="8170" width="4.5546875" style="1" customWidth="1"/>
     <col min="8171" max="8171" width="1" style="1" customWidth="1"/>
-    <col min="8172" max="8172" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8173" max="8173" width="8.453125" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="4.21875" style="1" customWidth="1"/>
+    <col min="8173" max="8173" width="8.44140625" style="1" customWidth="1"/>
     <col min="8174" max="8174" width="1" style="1" customWidth="1"/>
-    <col min="8175" max="8175" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8176" max="8176" width="7.453125" style="1" customWidth="1"/>
+    <col min="8175" max="8175" width="4.21875" style="1" customWidth="1"/>
+    <col min="8176" max="8176" width="7.44140625" style="1" customWidth="1"/>
     <col min="8177" max="8177" width="1" style="1" customWidth="1"/>
-    <col min="8178" max="8179" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8180" max="8180" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8181" max="8181" width="10.453125" style="1" customWidth="1"/>
-    <col min="8182" max="8182" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8183" max="8183" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8184" max="8184" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8185" max="8185" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8186" max="8424" width="10.90625" style="1"/>
-    <col min="8425" max="8425" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8426" max="8426" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8178" max="8179" width="4.21875" style="1" customWidth="1"/>
+    <col min="8180" max="8180" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8181" max="8181" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8182" max="8182" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8183" max="8183" width="22.21875" style="1" customWidth="1"/>
+    <col min="8184" max="8184" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8185" max="8185" width="4.21875" style="1" customWidth="1"/>
+    <col min="8186" max="8424" width="10.88671875" style="1"/>
+    <col min="8425" max="8425" width="5.21875" style="1" customWidth="1"/>
+    <col min="8426" max="8426" width="4.5546875" style="1" customWidth="1"/>
     <col min="8427" max="8427" width="1" style="1" customWidth="1"/>
-    <col min="8428" max="8428" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8429" max="8429" width="8.453125" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="4.21875" style="1" customWidth="1"/>
+    <col min="8429" max="8429" width="8.44140625" style="1" customWidth="1"/>
     <col min="8430" max="8430" width="1" style="1" customWidth="1"/>
-    <col min="8431" max="8431" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8432" max="8432" width="7.453125" style="1" customWidth="1"/>
+    <col min="8431" max="8431" width="4.21875" style="1" customWidth="1"/>
+    <col min="8432" max="8432" width="7.44140625" style="1" customWidth="1"/>
     <col min="8433" max="8433" width="1" style="1" customWidth="1"/>
-    <col min="8434" max="8435" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8436" max="8436" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8437" max="8437" width="10.453125" style="1" customWidth="1"/>
-    <col min="8438" max="8438" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8439" max="8439" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8440" max="8440" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8441" max="8441" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8442" max="8680" width="10.90625" style="1"/>
-    <col min="8681" max="8681" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8682" max="8682" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8434" max="8435" width="4.21875" style="1" customWidth="1"/>
+    <col min="8436" max="8436" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8437" max="8437" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8438" max="8438" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8439" max="8439" width="22.21875" style="1" customWidth="1"/>
+    <col min="8440" max="8440" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8441" max="8441" width="4.21875" style="1" customWidth="1"/>
+    <col min="8442" max="8680" width="10.88671875" style="1"/>
+    <col min="8681" max="8681" width="5.21875" style="1" customWidth="1"/>
+    <col min="8682" max="8682" width="4.5546875" style="1" customWidth="1"/>
     <col min="8683" max="8683" width="1" style="1" customWidth="1"/>
-    <col min="8684" max="8684" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8685" max="8685" width="8.453125" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="4.21875" style="1" customWidth="1"/>
+    <col min="8685" max="8685" width="8.44140625" style="1" customWidth="1"/>
     <col min="8686" max="8686" width="1" style="1" customWidth="1"/>
-    <col min="8687" max="8687" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8688" max="8688" width="7.453125" style="1" customWidth="1"/>
+    <col min="8687" max="8687" width="4.21875" style="1" customWidth="1"/>
+    <col min="8688" max="8688" width="7.44140625" style="1" customWidth="1"/>
     <col min="8689" max="8689" width="1" style="1" customWidth="1"/>
-    <col min="8690" max="8691" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8692" max="8692" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8693" max="8693" width="10.453125" style="1" customWidth="1"/>
-    <col min="8694" max="8694" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8695" max="8695" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8696" max="8696" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8697" max="8697" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8698" max="8936" width="10.90625" style="1"/>
-    <col min="8937" max="8937" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8938" max="8938" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8690" max="8691" width="4.21875" style="1" customWidth="1"/>
+    <col min="8692" max="8692" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8693" max="8693" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8694" max="8694" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8695" max="8695" width="22.21875" style="1" customWidth="1"/>
+    <col min="8696" max="8696" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8697" max="8697" width="4.21875" style="1" customWidth="1"/>
+    <col min="8698" max="8936" width="10.88671875" style="1"/>
+    <col min="8937" max="8937" width="5.21875" style="1" customWidth="1"/>
+    <col min="8938" max="8938" width="4.5546875" style="1" customWidth="1"/>
     <col min="8939" max="8939" width="1" style="1" customWidth="1"/>
-    <col min="8940" max="8940" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8941" max="8941" width="8.453125" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="4.21875" style="1" customWidth="1"/>
+    <col min="8941" max="8941" width="8.44140625" style="1" customWidth="1"/>
     <col min="8942" max="8942" width="1" style="1" customWidth="1"/>
-    <col min="8943" max="8943" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8944" max="8944" width="7.453125" style="1" customWidth="1"/>
+    <col min="8943" max="8943" width="4.21875" style="1" customWidth="1"/>
+    <col min="8944" max="8944" width="7.44140625" style="1" customWidth="1"/>
     <col min="8945" max="8945" width="1" style="1" customWidth="1"/>
-    <col min="8946" max="8947" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8948" max="8948" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8949" max="8949" width="10.453125" style="1" customWidth="1"/>
-    <col min="8950" max="8950" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8951" max="8951" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8952" max="8952" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8953" max="8953" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8954" max="9192" width="10.90625" style="1"/>
-    <col min="9193" max="9193" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9194" max="9194" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8946" max="8947" width="4.21875" style="1" customWidth="1"/>
+    <col min="8948" max="8948" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8949" max="8949" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8950" max="8950" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8951" max="8951" width="22.21875" style="1" customWidth="1"/>
+    <col min="8952" max="8952" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8953" max="8953" width="4.21875" style="1" customWidth="1"/>
+    <col min="8954" max="9192" width="10.88671875" style="1"/>
+    <col min="9193" max="9193" width="5.21875" style="1" customWidth="1"/>
+    <col min="9194" max="9194" width="4.5546875" style="1" customWidth="1"/>
     <col min="9195" max="9195" width="1" style="1" customWidth="1"/>
-    <col min="9196" max="9196" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9197" max="9197" width="8.453125" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="4.21875" style="1" customWidth="1"/>
+    <col min="9197" max="9197" width="8.44140625" style="1" customWidth="1"/>
     <col min="9198" max="9198" width="1" style="1" customWidth="1"/>
-    <col min="9199" max="9199" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9200" max="9200" width="7.453125" style="1" customWidth="1"/>
+    <col min="9199" max="9199" width="4.21875" style="1" customWidth="1"/>
+    <col min="9200" max="9200" width="7.44140625" style="1" customWidth="1"/>
     <col min="9201" max="9201" width="1" style="1" customWidth="1"/>
-    <col min="9202" max="9203" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9204" max="9204" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9205" max="9205" width="10.453125" style="1" customWidth="1"/>
-    <col min="9206" max="9206" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9207" max="9207" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9208" max="9208" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9209" max="9209" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9210" max="9448" width="10.90625" style="1"/>
-    <col min="9449" max="9449" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9450" max="9450" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9202" max="9203" width="4.21875" style="1" customWidth="1"/>
+    <col min="9204" max="9204" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9205" max="9205" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9206" max="9206" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9207" max="9207" width="22.21875" style="1" customWidth="1"/>
+    <col min="9208" max="9208" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9209" max="9209" width="4.21875" style="1" customWidth="1"/>
+    <col min="9210" max="9448" width="10.88671875" style="1"/>
+    <col min="9449" max="9449" width="5.21875" style="1" customWidth="1"/>
+    <col min="9450" max="9450" width="4.5546875" style="1" customWidth="1"/>
     <col min="9451" max="9451" width="1" style="1" customWidth="1"/>
-    <col min="9452" max="9452" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9453" max="9453" width="8.453125" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="4.21875" style="1" customWidth="1"/>
+    <col min="9453" max="9453" width="8.44140625" style="1" customWidth="1"/>
     <col min="9454" max="9454" width="1" style="1" customWidth="1"/>
-    <col min="9455" max="9455" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9456" max="9456" width="7.453125" style="1" customWidth="1"/>
+    <col min="9455" max="9455" width="4.21875" style="1" customWidth="1"/>
+    <col min="9456" max="9456" width="7.44140625" style="1" customWidth="1"/>
     <col min="9457" max="9457" width="1" style="1" customWidth="1"/>
-    <col min="9458" max="9459" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9460" max="9460" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9461" max="9461" width="10.453125" style="1" customWidth="1"/>
-    <col min="9462" max="9462" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9463" max="9463" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9464" max="9464" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9465" max="9465" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9466" max="9704" width="10.90625" style="1"/>
-    <col min="9705" max="9705" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9706" max="9706" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9458" max="9459" width="4.21875" style="1" customWidth="1"/>
+    <col min="9460" max="9460" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9461" max="9461" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9462" max="9462" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9463" max="9463" width="22.21875" style="1" customWidth="1"/>
+    <col min="9464" max="9464" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9465" max="9465" width="4.21875" style="1" customWidth="1"/>
+    <col min="9466" max="9704" width="10.88671875" style="1"/>
+    <col min="9705" max="9705" width="5.21875" style="1" customWidth="1"/>
+    <col min="9706" max="9706" width="4.5546875" style="1" customWidth="1"/>
     <col min="9707" max="9707" width="1" style="1" customWidth="1"/>
-    <col min="9708" max="9708" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9709" max="9709" width="8.453125" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="4.21875" style="1" customWidth="1"/>
+    <col min="9709" max="9709" width="8.44140625" style="1" customWidth="1"/>
     <col min="9710" max="9710" width="1" style="1" customWidth="1"/>
-    <col min="9711" max="9711" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9712" max="9712" width="7.453125" style="1" customWidth="1"/>
+    <col min="9711" max="9711" width="4.21875" style="1" customWidth="1"/>
+    <col min="9712" max="9712" width="7.44140625" style="1" customWidth="1"/>
     <col min="9713" max="9713" width="1" style="1" customWidth="1"/>
-    <col min="9714" max="9715" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9716" max="9716" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9717" max="9717" width="10.453125" style="1" customWidth="1"/>
-    <col min="9718" max="9718" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9719" max="9719" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9720" max="9720" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9721" max="9721" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9722" max="9960" width="10.90625" style="1"/>
-    <col min="9961" max="9961" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9962" max="9962" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9714" max="9715" width="4.21875" style="1" customWidth="1"/>
+    <col min="9716" max="9716" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9717" max="9717" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9718" max="9718" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9719" max="9719" width="22.21875" style="1" customWidth="1"/>
+    <col min="9720" max="9720" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9721" max="9721" width="4.21875" style="1" customWidth="1"/>
+    <col min="9722" max="9960" width="10.88671875" style="1"/>
+    <col min="9961" max="9961" width="5.21875" style="1" customWidth="1"/>
+    <col min="9962" max="9962" width="4.5546875" style="1" customWidth="1"/>
     <col min="9963" max="9963" width="1" style="1" customWidth="1"/>
-    <col min="9964" max="9964" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9965" max="9965" width="8.453125" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="4.21875" style="1" customWidth="1"/>
+    <col min="9965" max="9965" width="8.44140625" style="1" customWidth="1"/>
     <col min="9966" max="9966" width="1" style="1" customWidth="1"/>
-    <col min="9967" max="9967" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9968" max="9968" width="7.453125" style="1" customWidth="1"/>
+    <col min="9967" max="9967" width="4.21875" style="1" customWidth="1"/>
+    <col min="9968" max="9968" width="7.44140625" style="1" customWidth="1"/>
     <col min="9969" max="9969" width="1" style="1" customWidth="1"/>
-    <col min="9970" max="9971" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9972" max="9972" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9973" max="9973" width="10.453125" style="1" customWidth="1"/>
-    <col min="9974" max="9974" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9975" max="9975" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9976" max="9976" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9977" max="9977" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9978" max="10216" width="10.90625" style="1"/>
-    <col min="10217" max="10217" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10218" max="10218" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9970" max="9971" width="4.21875" style="1" customWidth="1"/>
+    <col min="9972" max="9972" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9973" max="9973" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9974" max="9974" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9975" max="9975" width="22.21875" style="1" customWidth="1"/>
+    <col min="9976" max="9976" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9977" max="9977" width="4.21875" style="1" customWidth="1"/>
+    <col min="9978" max="10216" width="10.88671875" style="1"/>
+    <col min="10217" max="10217" width="5.21875" style="1" customWidth="1"/>
+    <col min="10218" max="10218" width="4.5546875" style="1" customWidth="1"/>
     <col min="10219" max="10219" width="1" style="1" customWidth="1"/>
-    <col min="10220" max="10220" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10221" max="10221" width="8.453125" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="4.21875" style="1" customWidth="1"/>
+    <col min="10221" max="10221" width="8.44140625" style="1" customWidth="1"/>
     <col min="10222" max="10222" width="1" style="1" customWidth="1"/>
-    <col min="10223" max="10223" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10224" max="10224" width="7.453125" style="1" customWidth="1"/>
+    <col min="10223" max="10223" width="4.21875" style="1" customWidth="1"/>
+    <col min="10224" max="10224" width="7.44140625" style="1" customWidth="1"/>
     <col min="10225" max="10225" width="1" style="1" customWidth="1"/>
-    <col min="10226" max="10227" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10228" max="10228" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10229" max="10229" width="10.453125" style="1" customWidth="1"/>
-    <col min="10230" max="10230" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10231" max="10231" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10232" max="10232" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10233" max="10233" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10234" max="10472" width="10.90625" style="1"/>
-    <col min="10473" max="10473" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10474" max="10474" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10226" max="10227" width="4.21875" style="1" customWidth="1"/>
+    <col min="10228" max="10228" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10229" max="10229" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10230" max="10230" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10231" max="10231" width="22.21875" style="1" customWidth="1"/>
+    <col min="10232" max="10232" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10233" max="10233" width="4.21875" style="1" customWidth="1"/>
+    <col min="10234" max="10472" width="10.88671875" style="1"/>
+    <col min="10473" max="10473" width="5.21875" style="1" customWidth="1"/>
+    <col min="10474" max="10474" width="4.5546875" style="1" customWidth="1"/>
     <col min="10475" max="10475" width="1" style="1" customWidth="1"/>
-    <col min="10476" max="10476" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10477" max="10477" width="8.453125" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="4.21875" style="1" customWidth="1"/>
+    <col min="10477" max="10477" width="8.44140625" style="1" customWidth="1"/>
     <col min="10478" max="10478" width="1" style="1" customWidth="1"/>
-    <col min="10479" max="10479" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10480" max="10480" width="7.453125" style="1" customWidth="1"/>
+    <col min="10479" max="10479" width="4.21875" style="1" customWidth="1"/>
+    <col min="10480" max="10480" width="7.44140625" style="1" customWidth="1"/>
     <col min="10481" max="10481" width="1" style="1" customWidth="1"/>
-    <col min="10482" max="10483" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10484" max="10484" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10485" max="10485" width="10.453125" style="1" customWidth="1"/>
-    <col min="10486" max="10486" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10487" max="10487" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10488" max="10488" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10489" max="10489" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10490" max="10728" width="10.90625" style="1"/>
-    <col min="10729" max="10729" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10730" max="10730" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10482" max="10483" width="4.21875" style="1" customWidth="1"/>
+    <col min="10484" max="10484" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10485" max="10485" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10486" max="10486" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10487" max="10487" width="22.21875" style="1" customWidth="1"/>
+    <col min="10488" max="10488" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10489" max="10489" width="4.21875" style="1" customWidth="1"/>
+    <col min="10490" max="10728" width="10.88671875" style="1"/>
+    <col min="10729" max="10729" width="5.21875" style="1" customWidth="1"/>
+    <col min="10730" max="10730" width="4.5546875" style="1" customWidth="1"/>
     <col min="10731" max="10731" width="1" style="1" customWidth="1"/>
-    <col min="10732" max="10732" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10733" max="10733" width="8.453125" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="4.21875" style="1" customWidth="1"/>
+    <col min="10733" max="10733" width="8.44140625" style="1" customWidth="1"/>
     <col min="10734" max="10734" width="1" style="1" customWidth="1"/>
-    <col min="10735" max="10735" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10736" max="10736" width="7.453125" style="1" customWidth="1"/>
+    <col min="10735" max="10735" width="4.21875" style="1" customWidth="1"/>
+    <col min="10736" max="10736" width="7.44140625" style="1" customWidth="1"/>
     <col min="10737" max="10737" width="1" style="1" customWidth="1"/>
-    <col min="10738" max="10739" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10740" max="10740" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10741" max="10741" width="10.453125" style="1" customWidth="1"/>
-    <col min="10742" max="10742" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10743" max="10743" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10744" max="10744" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10745" max="10745" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10746" max="10984" width="10.90625" style="1"/>
-    <col min="10985" max="10985" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10986" max="10986" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10738" max="10739" width="4.21875" style="1" customWidth="1"/>
+    <col min="10740" max="10740" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10741" max="10741" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10742" max="10742" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10743" max="10743" width="22.21875" style="1" customWidth="1"/>
+    <col min="10744" max="10744" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10745" max="10745" width="4.21875" style="1" customWidth="1"/>
+    <col min="10746" max="10984" width="10.88671875" style="1"/>
+    <col min="10985" max="10985" width="5.21875" style="1" customWidth="1"/>
+    <col min="10986" max="10986" width="4.5546875" style="1" customWidth="1"/>
     <col min="10987" max="10987" width="1" style="1" customWidth="1"/>
-    <col min="10988" max="10988" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10989" max="10989" width="8.453125" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="4.21875" style="1" customWidth="1"/>
+    <col min="10989" max="10989" width="8.44140625" style="1" customWidth="1"/>
     <col min="10990" max="10990" width="1" style="1" customWidth="1"/>
-    <col min="10991" max="10991" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10992" max="10992" width="7.453125" style="1" customWidth="1"/>
+    <col min="10991" max="10991" width="4.21875" style="1" customWidth="1"/>
+    <col min="10992" max="10992" width="7.44140625" style="1" customWidth="1"/>
     <col min="10993" max="10993" width="1" style="1" customWidth="1"/>
-    <col min="10994" max="10995" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10996" max="10996" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10997" max="10997" width="10.453125" style="1" customWidth="1"/>
-    <col min="10998" max="10998" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10999" max="10999" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11000" max="11000" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11001" max="11001" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11002" max="11240" width="10.90625" style="1"/>
-    <col min="11241" max="11241" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11242" max="11242" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10994" max="10995" width="4.21875" style="1" customWidth="1"/>
+    <col min="10996" max="10996" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10997" max="10997" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10998" max="10998" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10999" max="10999" width="22.21875" style="1" customWidth="1"/>
+    <col min="11000" max="11000" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11001" max="11001" width="4.21875" style="1" customWidth="1"/>
+    <col min="11002" max="11240" width="10.88671875" style="1"/>
+    <col min="11241" max="11241" width="5.21875" style="1" customWidth="1"/>
+    <col min="11242" max="11242" width="4.5546875" style="1" customWidth="1"/>
     <col min="11243" max="11243" width="1" style="1" customWidth="1"/>
-    <col min="11244" max="11244" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11245" max="11245" width="8.453125" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="4.21875" style="1" customWidth="1"/>
+    <col min="11245" max="11245" width="8.44140625" style="1" customWidth="1"/>
     <col min="11246" max="11246" width="1" style="1" customWidth="1"/>
-    <col min="11247" max="11247" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11248" max="11248" width="7.453125" style="1" customWidth="1"/>
+    <col min="11247" max="11247" width="4.21875" style="1" customWidth="1"/>
+    <col min="11248" max="11248" width="7.44140625" style="1" customWidth="1"/>
     <col min="11249" max="11249" width="1" style="1" customWidth="1"/>
-    <col min="11250" max="11251" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11252" max="11252" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11253" max="11253" width="10.453125" style="1" customWidth="1"/>
-    <col min="11254" max="11254" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11255" max="11255" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11256" max="11256" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11257" max="11257" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11258" max="11496" width="10.90625" style="1"/>
-    <col min="11497" max="11497" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11498" max="11498" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11250" max="11251" width="4.21875" style="1" customWidth="1"/>
+    <col min="11252" max="11252" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11253" max="11253" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11254" max="11254" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11255" max="11255" width="22.21875" style="1" customWidth="1"/>
+    <col min="11256" max="11256" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11257" max="11257" width="4.21875" style="1" customWidth="1"/>
+    <col min="11258" max="11496" width="10.88671875" style="1"/>
+    <col min="11497" max="11497" width="5.21875" style="1" customWidth="1"/>
+    <col min="11498" max="11498" width="4.5546875" style="1" customWidth="1"/>
     <col min="11499" max="11499" width="1" style="1" customWidth="1"/>
-    <col min="11500" max="11500" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11501" max="11501" width="8.453125" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="4.21875" style="1" customWidth="1"/>
+    <col min="11501" max="11501" width="8.44140625" style="1" customWidth="1"/>
     <col min="11502" max="11502" width="1" style="1" customWidth="1"/>
-    <col min="11503" max="11503" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11504" max="11504" width="7.453125" style="1" customWidth="1"/>
+    <col min="11503" max="11503" width="4.21875" style="1" customWidth="1"/>
+    <col min="11504" max="11504" width="7.44140625" style="1" customWidth="1"/>
     <col min="11505" max="11505" width="1" style="1" customWidth="1"/>
-    <col min="11506" max="11507" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11508" max="11508" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11509" max="11509" width="10.453125" style="1" customWidth="1"/>
-    <col min="11510" max="11510" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11511" max="11511" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11512" max="11512" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11513" max="11513" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11514" max="11752" width="10.90625" style="1"/>
-    <col min="11753" max="11753" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11754" max="11754" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11506" max="11507" width="4.21875" style="1" customWidth="1"/>
+    <col min="11508" max="11508" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11509" max="11509" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11510" max="11510" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11511" max="11511" width="22.21875" style="1" customWidth="1"/>
+    <col min="11512" max="11512" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11513" max="11513" width="4.21875" style="1" customWidth="1"/>
+    <col min="11514" max="11752" width="10.88671875" style="1"/>
+    <col min="11753" max="11753" width="5.21875" style="1" customWidth="1"/>
+    <col min="11754" max="11754" width="4.5546875" style="1" customWidth="1"/>
     <col min="11755" max="11755" width="1" style="1" customWidth="1"/>
-    <col min="11756" max="11756" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11757" max="11757" width="8.453125" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="4.21875" style="1" customWidth="1"/>
+    <col min="11757" max="11757" width="8.44140625" style="1" customWidth="1"/>
     <col min="11758" max="11758" width="1" style="1" customWidth="1"/>
-    <col min="11759" max="11759" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11760" max="11760" width="7.453125" style="1" customWidth="1"/>
+    <col min="11759" max="11759" width="4.21875" style="1" customWidth="1"/>
+    <col min="11760" max="11760" width="7.44140625" style="1" customWidth="1"/>
     <col min="11761" max="11761" width="1" style="1" customWidth="1"/>
-    <col min="11762" max="11763" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11764" max="11764" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11765" max="11765" width="10.453125" style="1" customWidth="1"/>
-    <col min="11766" max="11766" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11767" max="11767" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11768" max="11768" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11769" max="11769" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11770" max="12008" width="10.90625" style="1"/>
-    <col min="12009" max="12009" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12010" max="12010" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11762" max="11763" width="4.21875" style="1" customWidth="1"/>
+    <col min="11764" max="11764" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11765" max="11765" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11766" max="11766" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11767" max="11767" width="22.21875" style="1" customWidth="1"/>
+    <col min="11768" max="11768" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11769" max="11769" width="4.21875" style="1" customWidth="1"/>
+    <col min="11770" max="12008" width="10.88671875" style="1"/>
+    <col min="12009" max="12009" width="5.21875" style="1" customWidth="1"/>
+    <col min="12010" max="12010" width="4.5546875" style="1" customWidth="1"/>
     <col min="12011" max="12011" width="1" style="1" customWidth="1"/>
-    <col min="12012" max="12012" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12013" max="12013" width="8.453125" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="4.21875" style="1" customWidth="1"/>
+    <col min="12013" max="12013" width="8.44140625" style="1" customWidth="1"/>
     <col min="12014" max="12014" width="1" style="1" customWidth="1"/>
-    <col min="12015" max="12015" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12016" max="12016" width="7.453125" style="1" customWidth="1"/>
+    <col min="12015" max="12015" width="4.21875" style="1" customWidth="1"/>
+    <col min="12016" max="12016" width="7.44140625" style="1" customWidth="1"/>
     <col min="12017" max="12017" width="1" style="1" customWidth="1"/>
-    <col min="12018" max="12019" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12020" max="12020" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12021" max="12021" width="10.453125" style="1" customWidth="1"/>
-    <col min="12022" max="12022" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12023" max="12023" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12024" max="12024" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12025" max="12025" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12026" max="12264" width="10.90625" style="1"/>
-    <col min="12265" max="12265" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12266" max="12266" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12018" max="12019" width="4.21875" style="1" customWidth="1"/>
+    <col min="12020" max="12020" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12021" max="12021" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12022" max="12022" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12023" max="12023" width="22.21875" style="1" customWidth="1"/>
+    <col min="12024" max="12024" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12025" max="12025" width="4.21875" style="1" customWidth="1"/>
+    <col min="12026" max="12264" width="10.88671875" style="1"/>
+    <col min="12265" max="12265" width="5.21875" style="1" customWidth="1"/>
+    <col min="12266" max="12266" width="4.5546875" style="1" customWidth="1"/>
     <col min="12267" max="12267" width="1" style="1" customWidth="1"/>
-    <col min="12268" max="12268" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12269" max="12269" width="8.453125" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="4.21875" style="1" customWidth="1"/>
+    <col min="12269" max="12269" width="8.44140625" style="1" customWidth="1"/>
     <col min="12270" max="12270" width="1" style="1" customWidth="1"/>
-    <col min="12271" max="12271" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12272" max="12272" width="7.453125" style="1" customWidth="1"/>
+    <col min="12271" max="12271" width="4.21875" style="1" customWidth="1"/>
+    <col min="12272" max="12272" width="7.44140625" style="1" customWidth="1"/>
     <col min="12273" max="12273" width="1" style="1" customWidth="1"/>
-    <col min="12274" max="12275" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12276" max="12276" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12277" max="12277" width="10.453125" style="1" customWidth="1"/>
-    <col min="12278" max="12278" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12279" max="12279" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12280" max="12280" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12281" max="12281" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12282" max="12520" width="10.90625" style="1"/>
-    <col min="12521" max="12521" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12522" max="12522" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12274" max="12275" width="4.21875" style="1" customWidth="1"/>
+    <col min="12276" max="12276" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12277" max="12277" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12278" max="12278" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12279" max="12279" width="22.21875" style="1" customWidth="1"/>
+    <col min="12280" max="12280" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12281" max="12281" width="4.21875" style="1" customWidth="1"/>
+    <col min="12282" max="12520" width="10.88671875" style="1"/>
+    <col min="12521" max="12521" width="5.21875" style="1" customWidth="1"/>
+    <col min="12522" max="12522" width="4.5546875" style="1" customWidth="1"/>
     <col min="12523" max="12523" width="1" style="1" customWidth="1"/>
-    <col min="12524" max="12524" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12525" max="12525" width="8.453125" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="4.21875" style="1" customWidth="1"/>
+    <col min="12525" max="12525" width="8.44140625" style="1" customWidth="1"/>
     <col min="12526" max="12526" width="1" style="1" customWidth="1"/>
-    <col min="12527" max="12527" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12528" max="12528" width="7.453125" style="1" customWidth="1"/>
+    <col min="12527" max="12527" width="4.21875" style="1" customWidth="1"/>
+    <col min="12528" max="12528" width="7.44140625" style="1" customWidth="1"/>
     <col min="12529" max="12529" width="1" style="1" customWidth="1"/>
-    <col min="12530" max="12531" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12532" max="12532" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12533" max="12533" width="10.453125" style="1" customWidth="1"/>
-    <col min="12534" max="12534" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12535" max="12535" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12536" max="12536" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12537" max="12537" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12538" max="12776" width="10.90625" style="1"/>
-    <col min="12777" max="12777" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12778" max="12778" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12530" max="12531" width="4.21875" style="1" customWidth="1"/>
+    <col min="12532" max="12532" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12533" max="12533" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12534" max="12534" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12535" max="12535" width="22.21875" style="1" customWidth="1"/>
+    <col min="12536" max="12536" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12537" max="12537" width="4.21875" style="1" customWidth="1"/>
+    <col min="12538" max="12776" width="10.88671875" style="1"/>
+    <col min="12777" max="12777" width="5.21875" style="1" customWidth="1"/>
+    <col min="12778" max="12778" width="4.5546875" style="1" customWidth="1"/>
     <col min="12779" max="12779" width="1" style="1" customWidth="1"/>
-    <col min="12780" max="12780" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12781" max="12781" width="8.453125" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="4.21875" style="1" customWidth="1"/>
+    <col min="12781" max="12781" width="8.44140625" style="1" customWidth="1"/>
     <col min="12782" max="12782" width="1" style="1" customWidth="1"/>
-    <col min="12783" max="12783" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12784" max="12784" width="7.453125" style="1" customWidth="1"/>
+    <col min="12783" max="12783" width="4.21875" style="1" customWidth="1"/>
+    <col min="12784" max="12784" width="7.44140625" style="1" customWidth="1"/>
     <col min="12785" max="12785" width="1" style="1" customWidth="1"/>
-    <col min="12786" max="12787" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12788" max="12788" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12789" max="12789" width="10.453125" style="1" customWidth="1"/>
-    <col min="12790" max="12790" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12791" max="12791" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12792" max="12792" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12793" max="12793" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12794" max="13032" width="10.90625" style="1"/>
-    <col min="13033" max="13033" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13034" max="13034" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12786" max="12787" width="4.21875" style="1" customWidth="1"/>
+    <col min="12788" max="12788" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12789" max="12789" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12790" max="12790" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12791" max="12791" width="22.21875" style="1" customWidth="1"/>
+    <col min="12792" max="12792" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12793" max="12793" width="4.21875" style="1" customWidth="1"/>
+    <col min="12794" max="13032" width="10.88671875" style="1"/>
+    <col min="13033" max="13033" width="5.21875" style="1" customWidth="1"/>
+    <col min="13034" max="13034" width="4.5546875" style="1" customWidth="1"/>
     <col min="13035" max="13035" width="1" style="1" customWidth="1"/>
-    <col min="13036" max="13036" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13037" max="13037" width="8.453125" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="4.21875" style="1" customWidth="1"/>
+    <col min="13037" max="13037" width="8.44140625" style="1" customWidth="1"/>
     <col min="13038" max="13038" width="1" style="1" customWidth="1"/>
-    <col min="13039" max="13039" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13040" max="13040" width="7.453125" style="1" customWidth="1"/>
+    <col min="13039" max="13039" width="4.21875" style="1" customWidth="1"/>
+    <col min="13040" max="13040" width="7.44140625" style="1" customWidth="1"/>
     <col min="13041" max="13041" width="1" style="1" customWidth="1"/>
-    <col min="13042" max="13043" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13044" max="13044" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13045" max="13045" width="10.453125" style="1" customWidth="1"/>
-    <col min="13046" max="13046" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13047" max="13047" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13048" max="13048" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13049" max="13049" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13050" max="13288" width="10.90625" style="1"/>
-    <col min="13289" max="13289" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13290" max="13290" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13042" max="13043" width="4.21875" style="1" customWidth="1"/>
+    <col min="13044" max="13044" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13045" max="13045" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13046" max="13046" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13047" max="13047" width="22.21875" style="1" customWidth="1"/>
+    <col min="13048" max="13048" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13049" max="13049" width="4.21875" style="1" customWidth="1"/>
+    <col min="13050" max="13288" width="10.88671875" style="1"/>
+    <col min="13289" max="13289" width="5.21875" style="1" customWidth="1"/>
+    <col min="13290" max="13290" width="4.5546875" style="1" customWidth="1"/>
     <col min="13291" max="13291" width="1" style="1" customWidth="1"/>
-    <col min="13292" max="13292" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13293" max="13293" width="8.453125" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="4.21875" style="1" customWidth="1"/>
+    <col min="13293" max="13293" width="8.44140625" style="1" customWidth="1"/>
     <col min="13294" max="13294" width="1" style="1" customWidth="1"/>
-    <col min="13295" max="13295" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13296" max="13296" width="7.453125" style="1" customWidth="1"/>
+    <col min="13295" max="13295" width="4.21875" style="1" customWidth="1"/>
+    <col min="13296" max="13296" width="7.44140625" style="1" customWidth="1"/>
     <col min="13297" max="13297" width="1" style="1" customWidth="1"/>
-    <col min="13298" max="13299" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13300" max="13300" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13301" max="13301" width="10.453125" style="1" customWidth="1"/>
-    <col min="13302" max="13302" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13303" max="13303" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13304" max="13304" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13305" max="13305" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13306" max="13544" width="10.90625" style="1"/>
-    <col min="13545" max="13545" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13546" max="13546" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13298" max="13299" width="4.21875" style="1" customWidth="1"/>
+    <col min="13300" max="13300" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13301" max="13301" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13302" max="13302" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13303" max="13303" width="22.21875" style="1" customWidth="1"/>
+    <col min="13304" max="13304" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13305" max="13305" width="4.21875" style="1" customWidth="1"/>
+    <col min="13306" max="13544" width="10.88671875" style="1"/>
+    <col min="13545" max="13545" width="5.21875" style="1" customWidth="1"/>
+    <col min="13546" max="13546" width="4.5546875" style="1" customWidth="1"/>
     <col min="13547" max="13547" width="1" style="1" customWidth="1"/>
-    <col min="13548" max="13548" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13549" max="13549" width="8.453125" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="4.21875" style="1" customWidth="1"/>
+    <col min="13549" max="13549" width="8.44140625" style="1" customWidth="1"/>
     <col min="13550" max="13550" width="1" style="1" customWidth="1"/>
-    <col min="13551" max="13551" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13552" max="13552" width="7.453125" style="1" customWidth="1"/>
+    <col min="13551" max="13551" width="4.21875" style="1" customWidth="1"/>
+    <col min="13552" max="13552" width="7.44140625" style="1" customWidth="1"/>
     <col min="13553" max="13553" width="1" style="1" customWidth="1"/>
-    <col min="13554" max="13555" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13556" max="13556" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13557" max="13557" width="10.453125" style="1" customWidth="1"/>
-    <col min="13558" max="13558" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13559" max="13559" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13560" max="13560" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13561" max="13561" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13562" max="13800" width="10.90625" style="1"/>
-    <col min="13801" max="13801" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13802" max="13802" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13554" max="13555" width="4.21875" style="1" customWidth="1"/>
+    <col min="13556" max="13556" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13557" max="13557" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13558" max="13558" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13559" max="13559" width="22.21875" style="1" customWidth="1"/>
+    <col min="13560" max="13560" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13561" max="13561" width="4.21875" style="1" customWidth="1"/>
+    <col min="13562" max="13800" width="10.88671875" style="1"/>
+    <col min="13801" max="13801" width="5.21875" style="1" customWidth="1"/>
+    <col min="13802" max="13802" width="4.5546875" style="1" customWidth="1"/>
     <col min="13803" max="13803" width="1" style="1" customWidth="1"/>
-    <col min="13804" max="13804" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13805" max="13805" width="8.453125" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="4.21875" style="1" customWidth="1"/>
+    <col min="13805" max="13805" width="8.44140625" style="1" customWidth="1"/>
     <col min="13806" max="13806" width="1" style="1" customWidth="1"/>
-    <col min="13807" max="13807" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13808" max="13808" width="7.453125" style="1" customWidth="1"/>
+    <col min="13807" max="13807" width="4.21875" style="1" customWidth="1"/>
+    <col min="13808" max="13808" width="7.44140625" style="1" customWidth="1"/>
     <col min="13809" max="13809" width="1" style="1" customWidth="1"/>
-    <col min="13810" max="13811" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13812" max="13812" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13813" max="13813" width="10.453125" style="1" customWidth="1"/>
-    <col min="13814" max="13814" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13815" max="13815" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13816" max="13816" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13817" max="13817" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13818" max="14056" width="10.90625" style="1"/>
-    <col min="14057" max="14057" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14058" max="14058" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13810" max="13811" width="4.21875" style="1" customWidth="1"/>
+    <col min="13812" max="13812" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13813" max="13813" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13814" max="13814" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13815" max="13815" width="22.21875" style="1" customWidth="1"/>
+    <col min="13816" max="13816" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13817" max="13817" width="4.21875" style="1" customWidth="1"/>
+    <col min="13818" max="14056" width="10.88671875" style="1"/>
+    <col min="14057" max="14057" width="5.21875" style="1" customWidth="1"/>
+    <col min="14058" max="14058" width="4.5546875" style="1" customWidth="1"/>
     <col min="14059" max="14059" width="1" style="1" customWidth="1"/>
-    <col min="14060" max="14060" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14061" max="14061" width="8.453125" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="4.21875" style="1" customWidth="1"/>
+    <col min="14061" max="14061" width="8.44140625" style="1" customWidth="1"/>
     <col min="14062" max="14062" width="1" style="1" customWidth="1"/>
-    <col min="14063" max="14063" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14064" max="14064" width="7.453125" style="1" customWidth="1"/>
+    <col min="14063" max="14063" width="4.21875" style="1" customWidth="1"/>
+    <col min="14064" max="14064" width="7.44140625" style="1" customWidth="1"/>
     <col min="14065" max="14065" width="1" style="1" customWidth="1"/>
-    <col min="14066" max="14067" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14068" max="14068" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14069" max="14069" width="10.453125" style="1" customWidth="1"/>
-    <col min="14070" max="14070" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14071" max="14071" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14072" max="14072" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14073" max="14073" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14074" max="14312" width="10.90625" style="1"/>
-    <col min="14313" max="14313" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14314" max="14314" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14066" max="14067" width="4.21875" style="1" customWidth="1"/>
+    <col min="14068" max="14068" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14069" max="14069" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14070" max="14070" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14071" max="14071" width="22.21875" style="1" customWidth="1"/>
+    <col min="14072" max="14072" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14073" max="14073" width="4.21875" style="1" customWidth="1"/>
+    <col min="14074" max="14312" width="10.88671875" style="1"/>
+    <col min="14313" max="14313" width="5.21875" style="1" customWidth="1"/>
+    <col min="14314" max="14314" width="4.5546875" style="1" customWidth="1"/>
     <col min="14315" max="14315" width="1" style="1" customWidth="1"/>
-    <col min="14316" max="14316" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14317" max="14317" width="8.453125" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="4.21875" style="1" customWidth="1"/>
+    <col min="14317" max="14317" width="8.44140625" style="1" customWidth="1"/>
     <col min="14318" max="14318" width="1" style="1" customWidth="1"/>
-    <col min="14319" max="14319" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14320" max="14320" width="7.453125" style="1" customWidth="1"/>
+    <col min="14319" max="14319" width="4.21875" style="1" customWidth="1"/>
+    <col min="14320" max="14320" width="7.44140625" style="1" customWidth="1"/>
     <col min="14321" max="14321" width="1" style="1" customWidth="1"/>
-    <col min="14322" max="14323" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14324" max="14324" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14325" max="14325" width="10.453125" style="1" customWidth="1"/>
-    <col min="14326" max="14326" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14327" max="14327" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14328" max="14328" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14329" max="14329" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14330" max="14568" width="10.90625" style="1"/>
-    <col min="14569" max="14569" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14570" max="14570" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14322" max="14323" width="4.21875" style="1" customWidth="1"/>
+    <col min="14324" max="14324" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14325" max="14325" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14326" max="14326" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14327" max="14327" width="22.21875" style="1" customWidth="1"/>
+    <col min="14328" max="14328" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14329" max="14329" width="4.21875" style="1" customWidth="1"/>
+    <col min="14330" max="14568" width="10.88671875" style="1"/>
+    <col min="14569" max="14569" width="5.21875" style="1" customWidth="1"/>
+    <col min="14570" max="14570" width="4.5546875" style="1" customWidth="1"/>
     <col min="14571" max="14571" width="1" style="1" customWidth="1"/>
-    <col min="14572" max="14572" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14573" max="14573" width="8.453125" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="4.21875" style="1" customWidth="1"/>
+    <col min="14573" max="14573" width="8.44140625" style="1" customWidth="1"/>
     <col min="14574" max="14574" width="1" style="1" customWidth="1"/>
-    <col min="14575" max="14575" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14576" max="14576" width="7.453125" style="1" customWidth="1"/>
+    <col min="14575" max="14575" width="4.21875" style="1" customWidth="1"/>
+    <col min="14576" max="14576" width="7.44140625" style="1" customWidth="1"/>
     <col min="14577" max="14577" width="1" style="1" customWidth="1"/>
-    <col min="14578" max="14579" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14580" max="14580" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14581" max="14581" width="10.453125" style="1" customWidth="1"/>
-    <col min="14582" max="14582" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14583" max="14583" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14584" max="14584" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14585" max="14585" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14586" max="14824" width="10.90625" style="1"/>
-    <col min="14825" max="14825" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14826" max="14826" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14578" max="14579" width="4.21875" style="1" customWidth="1"/>
+    <col min="14580" max="14580" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14581" max="14581" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14582" max="14582" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14583" max="14583" width="22.21875" style="1" customWidth="1"/>
+    <col min="14584" max="14584" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14585" max="14585" width="4.21875" style="1" customWidth="1"/>
+    <col min="14586" max="14824" width="10.88671875" style="1"/>
+    <col min="14825" max="14825" width="5.21875" style="1" customWidth="1"/>
+    <col min="14826" max="14826" width="4.5546875" style="1" customWidth="1"/>
     <col min="14827" max="14827" width="1" style="1" customWidth="1"/>
-    <col min="14828" max="14828" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14829" max="14829" width="8.453125" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="4.21875" style="1" customWidth="1"/>
+    <col min="14829" max="14829" width="8.44140625" style="1" customWidth="1"/>
     <col min="14830" max="14830" width="1" style="1" customWidth="1"/>
-    <col min="14831" max="14831" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14832" max="14832" width="7.453125" style="1" customWidth="1"/>
+    <col min="14831" max="14831" width="4.21875" style="1" customWidth="1"/>
+    <col min="14832" max="14832" width="7.44140625" style="1" customWidth="1"/>
     <col min="14833" max="14833" width="1" style="1" customWidth="1"/>
-    <col min="14834" max="14835" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14836" max="14836" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14837" max="14837" width="10.453125" style="1" customWidth="1"/>
-    <col min="14838" max="14838" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14839" max="14839" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14840" max="14840" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14841" max="14841" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14842" max="15080" width="10.90625" style="1"/>
-    <col min="15081" max="15081" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15082" max="15082" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14834" max="14835" width="4.21875" style="1" customWidth="1"/>
+    <col min="14836" max="14836" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14837" max="14837" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14838" max="14838" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14839" max="14839" width="22.21875" style="1" customWidth="1"/>
+    <col min="14840" max="14840" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14841" max="14841" width="4.21875" style="1" customWidth="1"/>
+    <col min="14842" max="15080" width="10.88671875" style="1"/>
+    <col min="15081" max="15081" width="5.21875" style="1" customWidth="1"/>
+    <col min="15082" max="15082" width="4.5546875" style="1" customWidth="1"/>
     <col min="15083" max="15083" width="1" style="1" customWidth="1"/>
-    <col min="15084" max="15084" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15085" max="15085" width="8.453125" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="4.21875" style="1" customWidth="1"/>
+    <col min="15085" max="15085" width="8.44140625" style="1" customWidth="1"/>
     <col min="15086" max="15086" width="1" style="1" customWidth="1"/>
-    <col min="15087" max="15087" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15088" max="15088" width="7.453125" style="1" customWidth="1"/>
+    <col min="15087" max="15087" width="4.21875" style="1" customWidth="1"/>
+    <col min="15088" max="15088" width="7.44140625" style="1" customWidth="1"/>
     <col min="15089" max="15089" width="1" style="1" customWidth="1"/>
-    <col min="15090" max="15091" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15092" max="15092" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15093" max="15093" width="10.453125" style="1" customWidth="1"/>
-    <col min="15094" max="15094" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15095" max="15095" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15096" max="15096" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15097" max="15097" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15098" max="15336" width="10.90625" style="1"/>
-    <col min="15337" max="15337" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15338" max="15338" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15090" max="15091" width="4.21875" style="1" customWidth="1"/>
+    <col min="15092" max="15092" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15093" max="15093" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15094" max="15094" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15095" max="15095" width="22.21875" style="1" customWidth="1"/>
+    <col min="15096" max="15096" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15097" max="15097" width="4.21875" style="1" customWidth="1"/>
+    <col min="15098" max="15336" width="10.88671875" style="1"/>
+    <col min="15337" max="15337" width="5.21875" style="1" customWidth="1"/>
+    <col min="15338" max="15338" width="4.5546875" style="1" customWidth="1"/>
     <col min="15339" max="15339" width="1" style="1" customWidth="1"/>
-    <col min="15340" max="15340" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15341" max="15341" width="8.453125" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="4.21875" style="1" customWidth="1"/>
+    <col min="15341" max="15341" width="8.44140625" style="1" customWidth="1"/>
     <col min="15342" max="15342" width="1" style="1" customWidth="1"/>
-    <col min="15343" max="15343" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15344" max="15344" width="7.453125" style="1" customWidth="1"/>
+    <col min="15343" max="15343" width="4.21875" style="1" customWidth="1"/>
+    <col min="15344" max="15344" width="7.44140625" style="1" customWidth="1"/>
     <col min="15345" max="15345" width="1" style="1" customWidth="1"/>
-    <col min="15346" max="15347" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15348" max="15348" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15349" max="15349" width="10.453125" style="1" customWidth="1"/>
-    <col min="15350" max="15350" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15351" max="15351" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15352" max="15352" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15353" max="15353" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15354" max="15592" width="10.90625" style="1"/>
-    <col min="15593" max="15593" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15594" max="15594" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15346" max="15347" width="4.21875" style="1" customWidth="1"/>
+    <col min="15348" max="15348" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15349" max="15349" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15350" max="15350" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15351" max="15351" width="22.21875" style="1" customWidth="1"/>
+    <col min="15352" max="15352" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15353" max="15353" width="4.21875" style="1" customWidth="1"/>
+    <col min="15354" max="15592" width="10.88671875" style="1"/>
+    <col min="15593" max="15593" width="5.21875" style="1" customWidth="1"/>
+    <col min="15594" max="15594" width="4.5546875" style="1" customWidth="1"/>
     <col min="15595" max="15595" width="1" style="1" customWidth="1"/>
-    <col min="15596" max="15596" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15597" max="15597" width="8.453125" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="4.21875" style="1" customWidth="1"/>
+    <col min="15597" max="15597" width="8.44140625" style="1" customWidth="1"/>
     <col min="15598" max="15598" width="1" style="1" customWidth="1"/>
-    <col min="15599" max="15599" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15600" max="15600" width="7.453125" style="1" customWidth="1"/>
+    <col min="15599" max="15599" width="4.21875" style="1" customWidth="1"/>
+    <col min="15600" max="15600" width="7.44140625" style="1" customWidth="1"/>
     <col min="15601" max="15601" width="1" style="1" customWidth="1"/>
-    <col min="15602" max="15603" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15604" max="15604" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15605" max="15605" width="10.453125" style="1" customWidth="1"/>
-    <col min="15606" max="15606" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15607" max="15607" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15608" max="15608" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15609" max="15609" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15610" max="15848" width="10.90625" style="1"/>
-    <col min="15849" max="15849" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15850" max="15850" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15602" max="15603" width="4.21875" style="1" customWidth="1"/>
+    <col min="15604" max="15604" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15605" max="15605" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15606" max="15606" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15607" max="15607" width="22.21875" style="1" customWidth="1"/>
+    <col min="15608" max="15608" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15609" max="15609" width="4.21875" style="1" customWidth="1"/>
+    <col min="15610" max="15848" width="10.88671875" style="1"/>
+    <col min="15849" max="15849" width="5.21875" style="1" customWidth="1"/>
+    <col min="15850" max="15850" width="4.5546875" style="1" customWidth="1"/>
     <col min="15851" max="15851" width="1" style="1" customWidth="1"/>
-    <col min="15852" max="15852" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15853" max="15853" width="8.453125" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="4.21875" style="1" customWidth="1"/>
+    <col min="15853" max="15853" width="8.44140625" style="1" customWidth="1"/>
     <col min="15854" max="15854" width="1" style="1" customWidth="1"/>
-    <col min="15855" max="15855" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15856" max="15856" width="7.453125" style="1" customWidth="1"/>
+    <col min="15855" max="15855" width="4.21875" style="1" customWidth="1"/>
+    <col min="15856" max="15856" width="7.44140625" style="1" customWidth="1"/>
     <col min="15857" max="15857" width="1" style="1" customWidth="1"/>
-    <col min="15858" max="15859" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15860" max="15860" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15861" max="15861" width="10.453125" style="1" customWidth="1"/>
-    <col min="15862" max="15862" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15863" max="15863" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15864" max="15864" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15865" max="15865" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15866" max="16104" width="10.90625" style="1"/>
-    <col min="16105" max="16105" width="5.1796875" style="1" customWidth="1"/>
-    <col min="16106" max="16106" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15858" max="15859" width="4.21875" style="1" customWidth="1"/>
+    <col min="15860" max="15860" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15861" max="15861" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15862" max="15862" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15863" max="15863" width="22.21875" style="1" customWidth="1"/>
+    <col min="15864" max="15864" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15865" max="15865" width="4.21875" style="1" customWidth="1"/>
+    <col min="15866" max="16104" width="10.88671875" style="1"/>
+    <col min="16105" max="16105" width="5.21875" style="1" customWidth="1"/>
+    <col min="16106" max="16106" width="4.5546875" style="1" customWidth="1"/>
     <col min="16107" max="16107" width="1" style="1" customWidth="1"/>
-    <col min="16108" max="16108" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16109" max="16109" width="8.453125" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="4.21875" style="1" customWidth="1"/>
+    <col min="16109" max="16109" width="8.44140625" style="1" customWidth="1"/>
     <col min="16110" max="16110" width="1" style="1" customWidth="1"/>
-    <col min="16111" max="16111" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16112" max="16112" width="7.453125" style="1" customWidth="1"/>
+    <col min="16111" max="16111" width="4.21875" style="1" customWidth="1"/>
+    <col min="16112" max="16112" width="7.44140625" style="1" customWidth="1"/>
     <col min="16113" max="16113" width="1" style="1" customWidth="1"/>
-    <col min="16114" max="16115" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16116" max="16116" width="7.7265625" style="1" customWidth="1"/>
-    <col min="16117" max="16117" width="10.453125" style="1" customWidth="1"/>
-    <col min="16118" max="16118" width="12.7265625" style="1" customWidth="1"/>
-    <col min="16119" max="16119" width="22.26953125" style="1" customWidth="1"/>
-    <col min="16120" max="16120" width="0.7265625" style="1" customWidth="1"/>
-    <col min="16121" max="16121" width="4.1796875" style="1" customWidth="1"/>
-    <col min="16122" max="16384" width="10.90625" style="1"/>
+    <col min="16114" max="16115" width="4.21875" style="1" customWidth="1"/>
+    <col min="16116" max="16116" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16117" max="16117" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16118" max="16118" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16119" max="16119" width="22.21875" style="1" customWidth="1"/>
+    <col min="16120" max="16120" width="0.77734375" style="1" customWidth="1"/>
+    <col min="16121" max="16121" width="4.21875" style="1" customWidth="1"/>
+    <col min="16122" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="78"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
     </row>
-    <row r="4" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-    </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
+    <row r="5" spans="1:3" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+    </row>
+    <row r="12" spans="1:3" ht="5.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -5167,80 +5166,80 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
     </row>
-    <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
     </row>
     <row r="24" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="75.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="37"/>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="89"/>
+      <c r="C28" s="83"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>37</v>
       </c>
@@ -5291,6 +5290,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
@@ -5302,15 +5310,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.12" top="0.25" bottom="0.25" header="0.26" footer="0.25"/>
@@ -5325,15 +5324,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>99060</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2159000</xdr:colOff>
+                <xdr:colOff>2156460</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>628650</xdr:rowOff>
+                <xdr:rowOff>632460</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
